--- a/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
+++ b/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
@@ -331,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A99" authorId="0">
+    <comment ref="A105" authorId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A102" authorId="0">
+    <comment ref="A108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C102" authorId="0">
+    <comment ref="C108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D102" authorId="0">
+    <comment ref="D108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -428,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I102" authorId="0">
+    <comment ref="I108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A157" authorId="0">
+    <comment ref="A163" authorId="0">
       <text>
         <r>
           <rPr>
@@ -477,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A160" authorId="0">
+    <comment ref="A166" authorId="0">
       <text>
         <r>
           <rPr>
@@ -501,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C160" authorId="0">
+    <comment ref="C166" authorId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D160" authorId="0">
+    <comment ref="D166" authorId="0">
       <text>
         <r>
           <rPr>
@@ -549,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I160" authorId="0">
+    <comment ref="I166" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A215" authorId="0">
+    <comment ref="A221" authorId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A218" authorId="0">
+    <comment ref="A224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -622,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C218" authorId="0">
+    <comment ref="C224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D218" authorId="0">
+    <comment ref="D224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I218" authorId="0">
+    <comment ref="I224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="182">
   <si>
     <t>Plano de Sprint</t>
   </si>
@@ -1212,6 +1212,84 @@
   </si>
   <si>
     <t>Escrita para ficheiros XML</t>
+  </si>
+  <si>
+    <t>Criação de um SubMenu para as Macros</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Criar Janela da produção de Macros</t>
+  </si>
+  <si>
+    <t>Permitir a criação de uma Macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir Editar uma Macro anteriormente criada </t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>Criação do Relatório técnico</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>Estudo do enunciado e da aplicação fornecida</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>Enviar informação por sockets</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>Sincronização de informação</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>Receber informação através de sockets</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>Reconstrução do "workbook" e das "spreadsheets"</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>Observer para a alteração de informação das celulas</t>
   </si>
 </sst>
 </file>
@@ -1541,6 +1619,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1619,7 +1698,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2067,20 +2145,20 @@
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="40"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2108,58 +2186,58 @@
   <sheetData>
     <row r="1" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -2171,10 +2249,10 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="8">
         <v>41078</v>
       </c>
@@ -2436,7 +2514,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,50 +2530,50 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2907,13 +2985,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,68 +3003,68 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="64"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
@@ -3045,7 +3123,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3066,7 +3144,7 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -3087,7 +3165,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -3108,7 +3186,7 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3129,7 +3207,7 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3150,7 +3228,7 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3171,7 +3249,7 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3192,7 +3270,7 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3213,7 +3291,7 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3234,7 +3312,7 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3491,11 +3569,11 @@
       <c r="A34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>87</v>
+      <c r="B34" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="C34" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
@@ -3505,7 +3583,7 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3513,10 +3591,10 @@
         <v>109</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35" t="s">
@@ -3526,18 +3604,18 @@
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>89</v>
+      <c r="B36" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35" t="s">
@@ -3547,18 +3625,18 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>91</v>
+      <c r="B37" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="C37" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35" t="s">
@@ -3568,25 +3646,25 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
+      <c r="E38" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="F38" s="35"/>
-      <c r="G38" s="35" t="s">
-        <v>83</v>
-      </c>
+      <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="20" t="s">
         <v>32</v>
@@ -3594,20 +3672,20 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="C39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
+      <c r="E39" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="F39" s="35"/>
-      <c r="G39" s="35" t="s">
-        <v>83</v>
-      </c>
+      <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="20" t="s">
         <v>32</v>
@@ -3615,41 +3693,41 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="C40" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="E40" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="F40" s="35"/>
-      <c r="G40" s="35" t="s">
-        <v>83</v>
-      </c>
+      <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>89</v>
+        <v>163</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C41" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
+      <c r="E41" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="F41" s="35"/>
-      <c r="G41" s="35" t="s">
-        <v>83</v>
-      </c>
+      <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="20" t="s">
         <v>32</v>
@@ -3657,20 +3735,20 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="C42" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
+      <c r="E42" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="F42" s="35"/>
-      <c r="G42" s="35" t="s">
-        <v>83</v>
-      </c>
+      <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="20" t="s">
         <v>16</v>
@@ -3678,12 +3756,14 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
@@ -3697,13 +3777,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C44" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -3718,13 +3798,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C45" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -3737,15 +3817,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="C46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -3760,13 +3840,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -3776,19 +3856,17 @@
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="20" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="3">
-        <v>3</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C48" s="3"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
@@ -3800,15 +3878,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>89</v>
+        <v>153</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C49" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -3822,14 +3900,14 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
-        <v>148</v>
+      <c r="A50" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C50" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -3839,17 +3917,19 @@
       </c>
       <c r="H50" s="35"/>
       <c r="I50" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
@@ -3862,14 +3942,14 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
-        <v>150</v>
+      <c r="A52" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C52" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -3884,13 +3964,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C53" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -3904,14 +3984,14 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
-        <v>152</v>
+      <c r="A54" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="C54" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -3925,251 +4005,401 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>120</v>
+      <c r="A55" s="37" t="s">
+        <v>148</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35" t="s">
         <v>83</v>
       </c>
+      <c r="H55" s="35"/>
       <c r="I55" s="20" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="3">
-        <v>3</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35" t="s">
         <v>83</v>
       </c>
+      <c r="H56" s="35"/>
       <c r="I56" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>89</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35" t="s">
         <v>83</v>
       </c>
+      <c r="H57" s="35"/>
       <c r="I57" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="C58" s="3">
-        <v>5</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="20"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="3">
+        <v>8</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="35"/>
+      <c r="I59" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="20"/>
+      <c r="H60" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="20"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="H61" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="20"/>
+      <c r="H62" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="3">
+        <v>5</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="20"/>
+      <c r="H63" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="20"/>
+      <c r="H64" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="20"/>
+      <c r="H65" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="3">
+        <v>6</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="20"/>
+      <c r="H66" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="20"/>
+      <c r="H67" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="20"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="H68" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="20"/>
+      <c r="H69" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="3">
+        <v>5</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="20"/>
+      <c r="H70" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="3">
+        <v>7</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="20"/>
+      <c r="H71" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="3">
+        <v>6</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="20"/>
+      <c r="H72" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="20"/>
+      <c r="H73" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I73" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
@@ -4337,217 +4567,217 @@
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="21" t="s">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="20"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="20"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="20"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="20"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="19" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="22" t="s">
+    <row r="97" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="26"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="52" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="54"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="57"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="60"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="60"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="59"/>
-      <c r="I96" s="60"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
-      <c r="B97" s="62"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="63"/>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="55"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="56"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="58"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="59"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="59"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="61"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="59"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="62"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
+    </row>
+    <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="28" t="s">
+    <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="29"/>
-    </row>
-    <row r="102" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="B106" s="29"/>
+    </row>
+    <row r="108" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D102" s="12" t="s">
+      <c r="D108" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E108" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F108" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G102" s="12" t="s">
+      <c r="G108" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H102" s="12" t="s">
+      <c r="H108" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I108" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="20"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="20"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="20"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="20"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="20"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="20"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -4968,217 +5198,217 @@
       <c r="I146" s="20"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="25"/>
-      <c r="H147" s="25"/>
-      <c r="I147" s="21" t="s">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="20"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="20"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="20"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="20"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="20"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="20"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="24"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="18"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23"/>
-      <c r="H148" s="23"/>
-      <c r="I148" s="19" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="18"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="22" t="s">
+    <row r="155" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="26"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="52" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B150" s="53"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="53"/>
-      <c r="E150" s="53"/>
-      <c r="F150" s="53"/>
-      <c r="G150" s="53"/>
-      <c r="H150" s="53"/>
-      <c r="I150" s="54"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="55"/>
-      <c r="B151" s="56"/>
-      <c r="C151" s="56"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="56"/>
-      <c r="H151" s="56"/>
-      <c r="I151" s="57"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="58"/>
-      <c r="B152" s="59"/>
-      <c r="C152" s="59"/>
-      <c r="D152" s="59"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="59"/>
-      <c r="I152" s="60"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="58"/>
-      <c r="B153" s="59"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="59"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="59"/>
-      <c r="H153" s="59"/>
-      <c r="I153" s="60"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="58"/>
-      <c r="B154" s="59"/>
-      <c r="C154" s="59"/>
-      <c r="D154" s="59"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="59"/>
-      <c r="G154" s="59"/>
-      <c r="H154" s="59"/>
-      <c r="I154" s="60"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="61"/>
-      <c r="B155" s="62"/>
-      <c r="C155" s="62"/>
-      <c r="D155" s="62"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="62"/>
-      <c r="G155" s="62"/>
-      <c r="H155" s="62"/>
-      <c r="I155" s="63"/>
-    </row>
-    <row r="157" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="B156" s="54"/>
+      <c r="C156" s="54"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="54"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="54"/>
+      <c r="H156" s="54"/>
+      <c r="I156" s="55"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="56"/>
+      <c r="B157" s="57"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="57"/>
+      <c r="E157" s="57"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="57"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="58"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="59"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="60"/>
+      <c r="D158" s="60"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="60"/>
+      <c r="G158" s="60"/>
+      <c r="H158" s="60"/>
+      <c r="I158" s="61"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="59"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="60"/>
+      <c r="E159" s="60"/>
+      <c r="F159" s="60"/>
+      <c r="G159" s="60"/>
+      <c r="H159" s="60"/>
+      <c r="I159" s="61"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="59"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="60"/>
+      <c r="F160" s="60"/>
+      <c r="G160" s="60"/>
+      <c r="H160" s="60"/>
+      <c r="I160" s="61"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="62"/>
+      <c r="B161" s="63"/>
+      <c r="C161" s="63"/>
+      <c r="D161" s="63"/>
+      <c r="E161" s="63"/>
+      <c r="F161" s="63"/>
+      <c r="G161" s="63"/>
+      <c r="H161" s="63"/>
+      <c r="I161" s="64"/>
+    </row>
+    <row r="163" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A158" s="28" t="s">
+    <row r="164" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="29"/>
-    </row>
-    <row r="160" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="B164" s="29"/>
+    </row>
+    <row r="166" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B166" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D160" s="12" t="s">
+      <c r="D166" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E160" s="12" t="s">
+      <c r="E166" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F160" s="12" t="s">
+      <c r="F166" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G160" s="12" t="s">
+      <c r="G166" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H160" s="12" t="s">
+      <c r="H166" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I160" s="4" t="s">
+      <c r="I166" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="20"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="20"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="20"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="20"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="20"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="20"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
@@ -5599,217 +5829,217 @@
       <c r="I204" s="20"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="24"/>
-      <c r="B205" s="25"/>
-      <c r="C205" s="25"/>
-      <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
-      <c r="F205" s="25"/>
-      <c r="G205" s="25"/>
-      <c r="H205" s="25"/>
-      <c r="I205" s="21" t="s">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="20"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="20"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="20"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="20"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="20"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="20"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="24"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
+      <c r="E211" s="25"/>
+      <c r="F211" s="25"/>
+      <c r="G211" s="25"/>
+      <c r="H211" s="25"/>
+      <c r="I211" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="18"/>
-      <c r="B206" s="23"/>
-      <c r="C206" s="23"/>
-      <c r="D206" s="23"/>
-      <c r="E206" s="23"/>
-      <c r="F206" s="23"/>
-      <c r="G206" s="23"/>
-      <c r="H206" s="23"/>
-      <c r="I206" s="19" t="s">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="18"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="23"/>
+      <c r="D212" s="23"/>
+      <c r="E212" s="23"/>
+      <c r="F212" s="23"/>
+      <c r="G212" s="23"/>
+      <c r="H212" s="23"/>
+      <c r="I212" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="26"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="27"/>
-      <c r="D207" s="27"/>
-      <c r="E207" s="27"/>
-      <c r="F207" s="27"/>
-      <c r="G207" s="27"/>
-      <c r="H207" s="27"/>
-      <c r="I207" s="22" t="s">
+    <row r="213" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="26"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="52" t="s">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B208" s="53"/>
-      <c r="C208" s="53"/>
-      <c r="D208" s="53"/>
-      <c r="E208" s="53"/>
-      <c r="F208" s="53"/>
-      <c r="G208" s="53"/>
-      <c r="H208" s="53"/>
-      <c r="I208" s="54"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="55"/>
-      <c r="B209" s="56"/>
-      <c r="C209" s="56"/>
-      <c r="D209" s="56"/>
-      <c r="E209" s="56"/>
-      <c r="F209" s="56"/>
-      <c r="G209" s="56"/>
-      <c r="H209" s="56"/>
-      <c r="I209" s="57"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="58"/>
-      <c r="B210" s="59"/>
-      <c r="C210" s="59"/>
-      <c r="D210" s="59"/>
-      <c r="E210" s="59"/>
-      <c r="F210" s="59"/>
-      <c r="G210" s="59"/>
-      <c r="H210" s="59"/>
-      <c r="I210" s="60"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="58"/>
-      <c r="B211" s="59"/>
-      <c r="C211" s="59"/>
-      <c r="D211" s="59"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="59"/>
-      <c r="G211" s="59"/>
-      <c r="H211" s="59"/>
-      <c r="I211" s="60"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="58"/>
-      <c r="B212" s="59"/>
-      <c r="C212" s="59"/>
-      <c r="D212" s="59"/>
-      <c r="E212" s="59"/>
-      <c r="F212" s="59"/>
-      <c r="G212" s="59"/>
-      <c r="H212" s="59"/>
-      <c r="I212" s="60"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="61"/>
-      <c r="B213" s="62"/>
-      <c r="C213" s="62"/>
-      <c r="D213" s="62"/>
-      <c r="E213" s="62"/>
-      <c r="F213" s="62"/>
-      <c r="G213" s="62"/>
-      <c r="H213" s="62"/>
-      <c r="I213" s="63"/>
-    </row>
-    <row r="215" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="B214" s="54"/>
+      <c r="C214" s="54"/>
+      <c r="D214" s="54"/>
+      <c r="E214" s="54"/>
+      <c r="F214" s="54"/>
+      <c r="G214" s="54"/>
+      <c r="H214" s="54"/>
+      <c r="I214" s="55"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="56"/>
+      <c r="B215" s="57"/>
+      <c r="C215" s="57"/>
+      <c r="D215" s="57"/>
+      <c r="E215" s="57"/>
+      <c r="F215" s="57"/>
+      <c r="G215" s="57"/>
+      <c r="H215" s="57"/>
+      <c r="I215" s="58"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="59"/>
+      <c r="B216" s="60"/>
+      <c r="C216" s="60"/>
+      <c r="D216" s="60"/>
+      <c r="E216" s="60"/>
+      <c r="F216" s="60"/>
+      <c r="G216" s="60"/>
+      <c r="H216" s="60"/>
+      <c r="I216" s="61"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="59"/>
+      <c r="B217" s="60"/>
+      <c r="C217" s="60"/>
+      <c r="D217" s="60"/>
+      <c r="E217" s="60"/>
+      <c r="F217" s="60"/>
+      <c r="G217" s="60"/>
+      <c r="H217" s="60"/>
+      <c r="I217" s="61"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="59"/>
+      <c r="B218" s="60"/>
+      <c r="C218" s="60"/>
+      <c r="D218" s="60"/>
+      <c r="E218" s="60"/>
+      <c r="F218" s="60"/>
+      <c r="G218" s="60"/>
+      <c r="H218" s="60"/>
+      <c r="I218" s="61"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="62"/>
+      <c r="B219" s="63"/>
+      <c r="C219" s="63"/>
+      <c r="D219" s="63"/>
+      <c r="E219" s="63"/>
+      <c r="F219" s="63"/>
+      <c r="G219" s="63"/>
+      <c r="H219" s="63"/>
+      <c r="I219" s="64"/>
+    </row>
+    <row r="221" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A216" s="28" t="s">
+    <row r="222" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A222" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B216" s="29"/>
-    </row>
-    <row r="218" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+      <c r="B222" s="29"/>
+    </row>
+    <row r="224" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B224" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C224" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D218" s="12" t="s">
+      <c r="D224" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E218" s="12" t="s">
+      <c r="E224" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F218" s="12" t="s">
+      <c r="F224" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G218" s="12" t="s">
+      <c r="G224" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H218" s="12" t="s">
+      <c r="H224" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I218" s="4" t="s">
+      <c r="I224" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="20"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="20"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="20"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="20"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="20"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-      <c r="I224" s="20"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
@@ -6230,127 +6460,193 @@
       <c r="I262" s="20"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" s="24"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="25"/>
-      <c r="D263" s="25"/>
-      <c r="E263" s="25"/>
-      <c r="F263" s="25"/>
-      <c r="G263" s="25"/>
-      <c r="H263" s="25"/>
-      <c r="I263" s="21" t="s">
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+      <c r="I263" s="20"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="20"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+      <c r="I265" s="20"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+      <c r="I266" s="20"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="20"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="20"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="24"/>
+      <c r="B269" s="25"/>
+      <c r="C269" s="25"/>
+      <c r="D269" s="25"/>
+      <c r="E269" s="25"/>
+      <c r="F269" s="25"/>
+      <c r="G269" s="25"/>
+      <c r="H269" s="25"/>
+      <c r="I269" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="18"/>
-      <c r="B264" s="23"/>
-      <c r="C264" s="23"/>
-      <c r="D264" s="23"/>
-      <c r="E264" s="23"/>
-      <c r="F264" s="23"/>
-      <c r="G264" s="23"/>
-      <c r="H264" s="23"/>
-      <c r="I264" s="19" t="s">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="18"/>
+      <c r="B270" s="23"/>
+      <c r="C270" s="23"/>
+      <c r="D270" s="23"/>
+      <c r="E270" s="23"/>
+      <c r="F270" s="23"/>
+      <c r="G270" s="23"/>
+      <c r="H270" s="23"/>
+      <c r="I270" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" s="26"/>
-      <c r="B265" s="27"/>
-      <c r="C265" s="27"/>
-      <c r="D265" s="27"/>
-      <c r="E265" s="27"/>
-      <c r="F265" s="27"/>
-      <c r="G265" s="27"/>
-      <c r="H265" s="27"/>
-      <c r="I265" s="22" t="s">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="26"/>
+      <c r="B271" s="27"/>
+      <c r="C271" s="27"/>
+      <c r="D271" s="27"/>
+      <c r="E271" s="27"/>
+      <c r="F271" s="27"/>
+      <c r="G271" s="27"/>
+      <c r="H271" s="27"/>
+      <c r="I271" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="52" t="s">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B266" s="53"/>
-      <c r="C266" s="53"/>
-      <c r="D266" s="53"/>
-      <c r="E266" s="53"/>
-      <c r="F266" s="53"/>
-      <c r="G266" s="53"/>
-      <c r="H266" s="53"/>
-      <c r="I266" s="54"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" s="55"/>
-      <c r="B267" s="56"/>
-      <c r="C267" s="56"/>
-      <c r="D267" s="56"/>
-      <c r="E267" s="56"/>
-      <c r="F267" s="56"/>
-      <c r="G267" s="56"/>
-      <c r="H267" s="56"/>
-      <c r="I267" s="57"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" s="58"/>
-      <c r="B268" s="59"/>
-      <c r="C268" s="59"/>
-      <c r="D268" s="59"/>
-      <c r="E268" s="59"/>
-      <c r="F268" s="59"/>
-      <c r="G268" s="59"/>
-      <c r="H268" s="59"/>
-      <c r="I268" s="60"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" s="58"/>
-      <c r="B269" s="59"/>
-      <c r="C269" s="59"/>
-      <c r="D269" s="59"/>
-      <c r="E269" s="59"/>
-      <c r="F269" s="59"/>
-      <c r="G269" s="59"/>
-      <c r="H269" s="59"/>
-      <c r="I269" s="60"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="58"/>
-      <c r="B270" s="59"/>
-      <c r="C270" s="59"/>
-      <c r="D270" s="59"/>
-      <c r="E270" s="59"/>
-      <c r="F270" s="59"/>
-      <c r="G270" s="59"/>
-      <c r="H270" s="59"/>
-      <c r="I270" s="60"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="61"/>
-      <c r="B271" s="62"/>
-      <c r="C271" s="62"/>
-      <c r="D271" s="62"/>
-      <c r="E271" s="62"/>
-      <c r="F271" s="62"/>
-      <c r="G271" s="62"/>
-      <c r="H271" s="62"/>
-      <c r="I271" s="63"/>
+      <c r="B272" s="54"/>
+      <c r="C272" s="54"/>
+      <c r="D272" s="54"/>
+      <c r="E272" s="54"/>
+      <c r="F272" s="54"/>
+      <c r="G272" s="54"/>
+      <c r="H272" s="54"/>
+      <c r="I272" s="55"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="56"/>
+      <c r="B273" s="57"/>
+      <c r="C273" s="57"/>
+      <c r="D273" s="57"/>
+      <c r="E273" s="57"/>
+      <c r="F273" s="57"/>
+      <c r="G273" s="57"/>
+      <c r="H273" s="57"/>
+      <c r="I273" s="58"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="59"/>
+      <c r="B274" s="60"/>
+      <c r="C274" s="60"/>
+      <c r="D274" s="60"/>
+      <c r="E274" s="60"/>
+      <c r="F274" s="60"/>
+      <c r="G274" s="60"/>
+      <c r="H274" s="60"/>
+      <c r="I274" s="61"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="59"/>
+      <c r="B275" s="60"/>
+      <c r="C275" s="60"/>
+      <c r="D275" s="60"/>
+      <c r="E275" s="60"/>
+      <c r="F275" s="60"/>
+      <c r="G275" s="60"/>
+      <c r="H275" s="60"/>
+      <c r="I275" s="61"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="59"/>
+      <c r="B276" s="60"/>
+      <c r="C276" s="60"/>
+      <c r="D276" s="60"/>
+      <c r="E276" s="60"/>
+      <c r="F276" s="60"/>
+      <c r="G276" s="60"/>
+      <c r="H276" s="60"/>
+      <c r="I276" s="61"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="62"/>
+      <c r="B277" s="63"/>
+      <c r="C277" s="63"/>
+      <c r="D277" s="63"/>
+      <c r="E277" s="63"/>
+      <c r="F277" s="63"/>
+      <c r="G277" s="63"/>
+      <c r="H277" s="63"/>
+      <c r="I277" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A2:I6"/>
-    <mergeCell ref="A92:I92"/>
-    <mergeCell ref="A93:I97"/>
-    <mergeCell ref="A267:I271"/>
-    <mergeCell ref="A150:I150"/>
-    <mergeCell ref="A151:I155"/>
-    <mergeCell ref="A208:I208"/>
-    <mergeCell ref="A209:I213"/>
-    <mergeCell ref="A266:I266"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A99:I103"/>
+    <mergeCell ref="A273:I277"/>
+    <mergeCell ref="A156:I156"/>
+    <mergeCell ref="A157:I161"/>
+    <mergeCell ref="A214:I214"/>
+    <mergeCell ref="A215:I219"/>
+    <mergeCell ref="A272:I272"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I219:I262 I12:I88 I161:I204 I103:I146">
-      <formula1>$I$89:$I$91</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I225:I268 I109:I152 I167:I210 I12:I94">
+      <formula1>$I$95:$I$97</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
+++ b/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11640" activeTab="3"/>
@@ -12,7 +12,7 @@
     <sheet name="Lista de Itens" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -452,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A163" authorId="0">
+    <comment ref="A164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -477,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A166" authorId="0">
+    <comment ref="A167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -501,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C166" authorId="0">
+    <comment ref="C167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D166" authorId="0">
+    <comment ref="D167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -549,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I166" authorId="0">
+    <comment ref="I170" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A221" authorId="0">
+    <comment ref="A222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A224" authorId="0">
+    <comment ref="A225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -622,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C224" authorId="0">
+    <comment ref="C225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D224" authorId="0">
+    <comment ref="D225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I224" authorId="0">
+    <comment ref="I228" authorId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="248">
   <si>
     <t>Plano de Sprint</t>
   </si>
@@ -910,9 +910,6 @@
     <t>Conseguir o mesmo resultado de uma formula em Inglês numa em Português</t>
   </si>
   <si>
-    <t>Identificar novas formulas a identificar</t>
-  </si>
-  <si>
     <t>Importar e exportar informação para ficheiros .xml</t>
   </si>
   <si>
@@ -952,9 +949,6 @@
     <t>Acrescentar formulas básicas em Português</t>
   </si>
   <si>
-    <t>Acrescentar formulas mais especificas em Português</t>
-  </si>
-  <si>
     <t>A informação ser obtida correctamente em paralelo</t>
   </si>
   <si>
@@ -967,329 +961,533 @@
     <t>Tem que se encontrar a exportar e a importar todos os dados, com consistência de dados</t>
   </si>
   <si>
-    <t xml:space="preserve">Conseguir o mesmo resultado de uma formula em Inglês numa em Português
+    <t>Permitir imprimir uma folha de calculo</t>
+  </si>
+  <si>
+    <t>Permitir a partilha de um determinado valor de celulas de uma folha de calculo</t>
+  </si>
+  <si>
+    <t>Consultar a informação em paralelo a informação armazenada</t>
+  </si>
+  <si>
+    <t>Permitir estruturar informação noutro tipo de ficheiros</t>
+  </si>
+  <si>
+    <t>Cópia da folha em papel</t>
+  </si>
+  <si>
+    <t>Consultar os dados correctos</t>
+  </si>
+  <si>
+    <t>Permitir identificar as formulas existentes</t>
+  </si>
+  <si>
+    <t>Obter o ficheiro de outro tipo em estruturado com a informação correcta</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Casos de uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagramas de sequência </t>
+  </si>
+  <si>
+    <t>Diagramas de classes ilustrando as novas classes e como elas “integram” com as classes existentes</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Documentação sobre testes unitários e casos de teste</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>JDBC Driver e sua implementação</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Adaptação a MySQL</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>Adaptação a SQLServer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptação a Postgres </t>
+  </si>
+  <si>
+    <t>Indicar a área da folha que pretende exportar</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>Seleccionar a base de dados destino</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>"Set up" do projecto</t>
+  </si>
+  <si>
+    <t>Adição de novas fórmulas (Contagem, se, Fazer)</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>Adicionadas novas formulas (E, Nao, Ou).</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>Inicío do desenvolvimento dos testes untitários</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>Desenvolvimento dos scripts para a nova gramática</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>Testes unitários</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>"Limpeza" do código existente</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>Relatório técnico</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>Leitura de ficheiros xml</t>
+  </si>
+  <si>
+    <t>Escrita do conteudo das celulas para XML</t>
+  </si>
+  <si>
+    <t>Escrita das formataçoes para XML</t>
+  </si>
+  <si>
+    <t>Leitura do conteudo de XML</t>
+  </si>
+  <si>
+    <t>Fazer set ao conteudo da celula na folha de calculo</t>
+  </si>
+  <si>
+    <t>Fazer set às formatações da celula, lidas do ficheiro XML</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>8.6.1</t>
+  </si>
+  <si>
+    <t>8.6.2</t>
+  </si>
+  <si>
+    <t>8.6.3</t>
+  </si>
+  <si>
+    <t>7.6.1</t>
+  </si>
+  <si>
+    <t>7.6.2</t>
+  </si>
+  <si>
+    <t>Escrita para ficheiros XML</t>
+  </si>
+  <si>
+    <t>Criação de um SubMenu para as Macros</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Criar Janela da produção de Macros</t>
+  </si>
+  <si>
+    <t>Permitir a criação de uma Macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir Editar uma Macro anteriormente criada </t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>Criação do Relatório técnico</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>Estudo do enunciado e da aplicação fornecida</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>Enviar informação por sockets</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>Sincronização de informação</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>Receber informação através de sockets</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>Reconstrução do "workbook" e das "spreadsheets"</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>Observer para a alteração de informação das celulas</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>Importação de dados para a folha a partir de uma tabela</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>Relacionar 2 células sem interferência da UI</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>Interpretar fórmulas com referências a células</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>Cálculo da fórmula</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>Interpretação de sequência de fórmulas</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>Cálculo da sequência de fórmulas</t>
+  </si>
+  <si>
+    <t>Exportar dados para base de dados (Hibernate)</t>
+  </si>
+  <si>
+    <t>Mapear classes para armazenamento</t>
+  </si>
+  <si>
+    <t>Desenvolvimento codigo exportacao</t>
+  </si>
+  <si>
+    <t>Importar dados de base de dados (Hibernate)</t>
+  </si>
+  <si>
+    <t>Acrescentar fórmulas na nova gramática que referenciam 2 células</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obter o resultado pretendido nas 2 células
 </t>
   </si>
   <si>
-    <t>Permitir imprimir uma folha de calculo</t>
-  </si>
-  <si>
-    <t>Permitir a partilha de um determinado valor de celulas de uma folha de calculo</t>
-  </si>
-  <si>
-    <t>Consultar a informação em paralelo a informação armazenada</t>
-  </si>
-  <si>
-    <t>Permitir estruturar informação noutro tipo de ficheiros</t>
-  </si>
-  <si>
-    <t>Cópia da folha em papel</t>
-  </si>
-  <si>
-    <t>Consultar os dados correctos</t>
-  </si>
-  <si>
-    <t>Permitir identificar as formulas existentes</t>
-  </si>
-  <si>
-    <t>Obter o ficheiro de outro tipo em estruturado com a informação correcta</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>Casos de uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagramas de sequência </t>
-  </si>
-  <si>
-    <t>Diagramas de classes ilustrando as novas classes e como elas “integram” com as classes existentes</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>Documentação sobre testes unitários e casos de teste</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>JDBC Driver e sua implementação</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>Adaptação a MySQL</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>Adaptação a SQLServer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptação a Postgres </t>
-  </si>
-  <si>
-    <t>Indicar a área da folha que pretende exportar</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>Seleccionar a base de dados destino</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>"Set up" do projecto</t>
-  </si>
-  <si>
-    <t>Adição de novas fórmulas (Contagem, se, Fazer)</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>Adicionadas novas formulas (E, Nao, Ou).</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>Inicío do desenvolvimento dos testes untitários</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>Desenvolvimento dos scripts para a nova gramática</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>Testes unitários</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>"Limpeza" do código existente</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>Relatório técnico</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>4.12</t>
-  </si>
-  <si>
-    <t>Leitura de ficheiros xml</t>
-  </si>
-  <si>
-    <t>Escrita do conteudo das celulas para XML</t>
-  </si>
-  <si>
-    <t>Escrita das formataçoes para XML</t>
-  </si>
-  <si>
-    <t>Leitura do conteudo de XML</t>
-  </si>
-  <si>
-    <t>Fazer set ao conteudo da celula na folha de calculo</t>
-  </si>
-  <si>
-    <t>Fazer set às formatações da celula, lidas do ficheiro XML</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>8.6.1</t>
-  </si>
-  <si>
-    <t>8.6.2</t>
-  </si>
-  <si>
-    <t>8.6.3</t>
-  </si>
-  <si>
-    <t>7.6.1</t>
-  </si>
-  <si>
-    <t>7.6.2</t>
-  </si>
-  <si>
-    <t>Escrita para ficheiros XML</t>
-  </si>
-  <si>
-    <t>Criação de um SubMenu para as Macros</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>Criar Janela da produção de Macros</t>
-  </si>
-  <si>
-    <t>Permitir a criação de uma Macro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permitir Editar uma Macro anteriormente criada </t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>Criação do Relatório técnico</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>Estudo do enunciado e da aplicação fornecida</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>Enviar informação por sockets</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>Sincronização de informação</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>Receber informação através de sockets</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>10.7</t>
-  </si>
-  <si>
-    <t>Reconstrução do "workbook" e das "spreadsheets"</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>Observer para a alteração de informação das celulas</t>
+    <t>Exporta dados para base de dados usando Hibernate</t>
+  </si>
+  <si>
+    <t>Dados correctamente exportados</t>
+  </si>
+  <si>
+    <t>Importa dados de base de dados usando Hibernate</t>
+  </si>
+  <si>
+    <t>Dados correctamente importados</t>
+  </si>
+  <si>
+    <t>Actualizar dados de uma tabela</t>
+  </si>
+  <si>
+    <t>Actualizada dados da tabela</t>
+  </si>
+  <si>
+    <t>Dados bem actualizados</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>Criação de variáveis locais para as instruções da macros</t>
+  </si>
+  <si>
+    <t>Implementação do output da execução de uma Macro</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>Criação de uma nova gramática para as Macros</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>11.5.1</t>
+  </si>
+  <si>
+    <t>11.5.2</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>12.5.1</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>Declaração da chave PK da tabela</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>Actualização de campos de uma tabela</t>
+  </si>
+  <si>
+    <t>Inserção de novos dados numa tabela</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>Verificação dos dados modificados</t>
+  </si>
+  <si>
+    <t>Deve ser possível manter uma conexão, podendo-a desligar e voltar a ligar quando desejado</t>
+  </si>
+  <si>
+    <t>A possíbilidade de manter a partilha após desactivar esta</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>User story da conexão</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>Diagrama de sequência do problema</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>Desactivar uma Thread de conexão</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>Organização das conexões por nome</t>
+  </si>
+  <si>
+    <t>Organizar e gerir partilha</t>
+  </si>
+  <si>
+    <t>Identificar novas formulas a implementar</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>Algumas áreas ficaram sem testes unitários, embora estivessem planeados. A iteração 1 foi concluída com sucesso, tendo ficado todos os requisitos funcionais.</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1620,6 +1818,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1698,6 +1932,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1713,7 +1950,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2001,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,20 +2382,20 @@
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="40"/>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
     </row>
     <row r="25" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="42"/>
+      <c r="C25" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2176,7 +2413,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,58 +2423,58 @@
   <sheetData>
     <row r="1" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -2249,10 +2486,10 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="8">
         <v>41078</v>
       </c>
@@ -2511,10 +2748,10 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,50 +2767,50 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2610,22 +2847,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2633,13 +2870,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -2656,13 +2893,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>77</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>80</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -2671,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="39" x14ac:dyDescent="0.25">
@@ -2679,10 +2916,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>54</v>
@@ -2694,7 +2931,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2702,22 +2939,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>74</v>
+        <v>199</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -2725,13 +2962,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3">
         <v>10</v>
@@ -2740,7 +2977,7 @@
         <v>56</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="39" x14ac:dyDescent="0.25">
@@ -2748,13 +2985,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="E16" s="3">
         <v>8</v>
@@ -2763,7 +3000,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="39" x14ac:dyDescent="0.25">
@@ -2771,13 +3008,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E17" s="3">
         <v>8</v>
@@ -2786,7 +3023,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" x14ac:dyDescent="0.25">
@@ -2794,22 +3031,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="3">
         <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
@@ -2817,59 +3054,115 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>67</v>
-      </c>
       <c r="D19" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3">
         <v>8</v>
       </c>
       <c r="F19" s="3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G19" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>23</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="20"/>
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3">
+        <v>15</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="20"/>
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>32</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>18</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -2985,13 +3278,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I277"/>
+  <dimension ref="A1:I281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
+      <selection pane="bottomRight" activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,61 +3296,61 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3107,10 +3400,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>84</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>87</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -3118,7 +3411,7 @@
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
@@ -3128,10 +3421,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>88</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -3139,7 +3432,7 @@
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3149,10 +3442,10 @@
     </row>
     <row r="14" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>86</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>89</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -3160,7 +3453,7 @@
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -3170,10 +3463,10 @@
     </row>
     <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
@@ -3181,7 +3474,7 @@
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
@@ -3191,10 +3484,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
@@ -3202,7 +3495,7 @@
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
@@ -3212,10 +3505,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -3223,7 +3516,7 @@
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -3233,10 +3526,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>96</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -3244,7 +3537,7 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
@@ -3254,10 +3547,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -3265,7 +3558,7 @@
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
@@ -3275,10 +3568,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>101</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -3286,7 +3579,7 @@
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
@@ -3296,10 +3589,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -3307,7 +3600,7 @@
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
@@ -3317,16 +3610,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -3336,16 +3629,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -3357,16 +3650,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -3378,16 +3671,16 @@
     </row>
     <row r="25" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
@@ -3399,16 +3692,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -3420,16 +3713,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -3441,16 +3734,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -3462,16 +3755,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -3483,16 +3776,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
@@ -3504,16 +3797,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -3525,16 +3818,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
@@ -3546,38 +3839,38 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -3588,17 +3881,17 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
@@ -3609,17 +3902,17 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -3630,17 +3923,17 @@
     </row>
     <row r="37" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -3651,17 +3944,17 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
@@ -3672,17 +3965,17 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
@@ -3693,17 +3986,17 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C40" s="3">
         <v>8</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
@@ -3714,17 +4007,17 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C41" s="3">
         <v>7</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -3735,31 +4028,31 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C42" s="3">
         <v>3</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C43" s="3">
         <v>2</v>
@@ -3768,7 +4061,7 @@
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H43" s="35"/>
       <c r="I43" s="20" t="s">
@@ -3777,10 +4070,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -3789,7 +4082,7 @@
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H44" s="35"/>
       <c r="I44" s="20" t="s">
@@ -3798,10 +4091,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C45" s="3">
         <v>2</v>
@@ -3810,7 +4103,7 @@
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H45" s="35"/>
       <c r="I45" s="20" t="s">
@@ -3819,10 +4112,10 @@
     </row>
     <row r="46" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -3831,7 +4124,7 @@
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
       <c r="G46" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="20" t="s">
@@ -3840,10 +4133,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3">
         <v>6</v>
@@ -3852,7 +4145,7 @@
       <c r="E47" s="35"/>
       <c r="F47" s="35"/>
       <c r="G47" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="20" t="s">
@@ -3861,17 +4154,17 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
       <c r="G48" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H48" s="35"/>
       <c r="I48" s="20" t="s">
@@ -3880,10 +4173,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C49" s="3">
         <v>8</v>
@@ -3892,7 +4185,7 @@
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
       <c r="G49" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="20" t="s">
@@ -3901,10 +4194,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C50" s="3">
         <v>8</v>
@@ -3913,7 +4206,7 @@
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
       <c r="G50" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H50" s="35"/>
       <c r="I50" s="20" t="s">
@@ -3922,10 +4215,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
@@ -3934,7 +4227,7 @@
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
       <c r="G51" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H51" s="35"/>
       <c r="I51" s="20" t="s">
@@ -3943,10 +4236,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -3955,7 +4248,7 @@
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52" s="20" t="s">
@@ -3964,10 +4257,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="3">
         <v>3</v>
@@ -3976,7 +4269,7 @@
       <c r="E53" s="35"/>
       <c r="F53" s="35"/>
       <c r="G53" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H53" s="35"/>
       <c r="I53" s="20" t="s">
@@ -3985,10 +4278,10 @@
     </row>
     <row r="54" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -3997,7 +4290,7 @@
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
       <c r="G54" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H54" s="35"/>
       <c r="I54" s="20" t="s">
@@ -4006,10 +4299,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
@@ -4018,7 +4311,7 @@
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
       <c r="G55" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="20" t="s">
@@ -4027,17 +4320,17 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
       <c r="F56" s="35"/>
       <c r="G56" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="20" t="s">
@@ -4046,10 +4339,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C57" s="3">
         <v>6</v>
@@ -4058,7 +4351,7 @@
       <c r="E57" s="35"/>
       <c r="F57" s="35"/>
       <c r="G57" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H57" s="35"/>
       <c r="I57" s="20" t="s">
@@ -4067,10 +4360,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C58" s="3">
         <v>8</v>
@@ -4079,7 +4372,7 @@
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
       <c r="G58" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H58" s="35"/>
       <c r="I58" s="20" t="s">
@@ -4088,10 +4381,10 @@
     </row>
     <row r="59" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C59" s="3">
         <v>8</v>
@@ -4100,7 +4393,7 @@
       <c r="E59" s="35"/>
       <c r="F59" s="35"/>
       <c r="G59" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H59" s="35"/>
       <c r="I59" s="20" t="s">
@@ -4109,10 +4402,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -4122,7 +4415,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I60" s="20" t="s">
         <v>32</v>
@@ -4130,10 +4423,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C61" s="3">
         <v>3</v>
@@ -4143,7 +4436,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I61" s="20" t="s">
         <v>32</v>
@@ -4151,10 +4444,10 @@
     </row>
     <row r="62" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -4164,7 +4457,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I62" s="20" t="s">
         <v>32</v>
@@ -4172,10 +4465,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -4185,18 +4478,18 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -4206,7 +4499,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I64" s="20" t="s">
         <v>32</v>
@@ -4214,10 +4507,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C65" s="3">
         <v>4</v>
@@ -4227,7 +4520,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I65" s="20" t="s">
         <v>32</v>
@@ -4235,10 +4528,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C66" s="3">
         <v>6</v>
@@ -4248,7 +4541,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I66" s="20" t="s">
         <v>32</v>
@@ -4256,10 +4549,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
@@ -4269,7 +4562,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I67" s="20" t="s">
         <v>32</v>
@@ -4277,10 +4570,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
@@ -4290,7 +4583,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I68" s="20" t="s">
         <v>32</v>
@@ -4298,10 +4591,10 @@
     </row>
     <row r="69" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
@@ -4311,7 +4604,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>32</v>
@@ -4319,10 +4612,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C70" s="3">
         <v>5</v>
@@ -4332,18 +4625,18 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C71" s="3">
         <v>7</v>
@@ -4353,7 +4646,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>32</v>
@@ -4361,10 +4654,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C72" s="3">
         <v>6</v>
@@ -4374,7 +4667,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I72" s="20" t="s">
         <v>32</v>
@@ -4382,10 +4675,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C73" s="3">
         <v>5</v>
@@ -4395,7 +4688,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I73" s="20" t="s">
         <v>16</v>
@@ -4671,73 +4964,75 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="53" t="s">
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="55"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="67"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="58"/>
+      <c r="A99" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="70"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="59"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+      <c r="A100" s="71"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="73"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="59"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="61"/>
+      <c r="A101" s="71"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="73"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="59"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="A102" s="71"/>
+      <c r="B102" s="72"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="73"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
-      <c r="B103" s="63"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="63"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+      <c r="A103" s="74"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="75"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="76"/>
     </row>
     <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
@@ -4748,7 +5043,9 @@
       <c r="A106" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="29"/>
+      <c r="B106" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
@@ -4761,441 +5058,814 @@
         <v>38</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="20"/>
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>80</v>
+      </c>
+      <c r="G109" s="35"/>
+      <c r="I109" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="20"/>
+      <c r="A110" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2</v>
+      </c>
+      <c r="D110" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="20"/>
+      <c r="A111" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
+      <c r="D111" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="20"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="20"/>
+      <c r="A112" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="3">
+        <v>3</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="20"/>
+      <c r="A114" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="3">
+        <v>5</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="20"/>
+      <c r="A115" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="3">
+        <v>5</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="20"/>
+      <c r="A116" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" s="3">
+        <v>2</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="20"/>
+      <c r="A117" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" s="3">
+        <v>8</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="20"/>
+      <c r="A118" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="3">
+        <v>5</v>
+      </c>
+      <c r="D118" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="20"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="20"/>
+      <c r="A119" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="3">
+        <v>2</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" s="3">
+        <v>8</v>
+      </c>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F120" s="35"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="20"/>
+      <c r="A121" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" s="3">
+        <v>8</v>
+      </c>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="20"/>
+      <c r="A122" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="3">
+        <v>8</v>
+      </c>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="A123" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" s="3">
+        <v>2</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="20"/>
+      <c r="H123" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I123" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" s="3">
+        <v>2</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="20"/>
+      <c r="H124" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I124" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C125" s="3">
+        <v>5</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="20"/>
+      <c r="H125" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I125" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="20"/>
+      <c r="A126" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" s="3">
+        <v>2</v>
+      </c>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" s="35"/>
+      <c r="I126" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="20"/>
+      <c r="A127" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="3">
+        <v>2</v>
+      </c>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H127" s="35"/>
+      <c r="I127" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="20"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="20"/>
+      <c r="A128" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2</v>
+      </c>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H128" s="35"/>
+      <c r="I128" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2</v>
+      </c>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H129" s="35"/>
+      <c r="I129" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>195</v>
+      </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+      <c r="G130" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="H130" s="3"/>
-      <c r="I130" s="20"/>
+      <c r="I130" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C131" s="3">
+        <v>8</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
+      <c r="G131" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="H131" s="3"/>
-      <c r="I131" s="20"/>
+      <c r="I131" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" s="3">
+        <v>8</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
+      <c r="G132" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="H132" s="3"/>
-      <c r="I132" s="20"/>
+      <c r="I132" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="20"/>
+      <c r="A133" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2</v>
+      </c>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H133" s="35"/>
+      <c r="I133" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="20"/>
+      <c r="A134" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H134" s="35"/>
+      <c r="I134" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="20"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="20"/>
+      <c r="A135" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="3">
+        <v>3</v>
+      </c>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H135" s="35"/>
+      <c r="I135" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1</v>
+      </c>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H136" s="35"/>
+      <c r="I136" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>198</v>
+      </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
+      <c r="G137" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="H137" s="3"/>
-      <c r="I137" s="20"/>
+      <c r="I137" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" s="3">
+        <v>8</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
+      <c r="G138" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="H138" s="3"/>
-      <c r="I138" s="20"/>
+      <c r="I138" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C139" s="3">
+        <v>8</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
+      <c r="F139" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
-      <c r="I139" s="20"/>
+      <c r="I139" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C140" s="3">
+        <v>8</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
-      <c r="I140" s="20"/>
+      <c r="I140" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C141" s="3">
+        <v>8</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+      <c r="F141" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
-      <c r="I141" s="20"/>
+      <c r="I141" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C142" s="3">
+        <v>8</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
+      <c r="F142" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
-      <c r="I142" s="20"/>
+      <c r="I142" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="A143" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C143" s="3">
+        <v>2</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="20"/>
+      <c r="H143" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I143" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" s="3">
+        <v>3</v>
+      </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="20"/>
+      <c r="H144" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I144" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="A145" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C145" s="3">
+        <v>6</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="20"/>
+      <c r="H145" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I145" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C146" s="3">
+        <v>6</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="20"/>
+      <c r="H146" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I146" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
@@ -5264,162 +5934,164 @@
       <c r="I152" s="20"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="25"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="25"/>
-      <c r="H153" s="25"/>
-      <c r="I153" s="21" t="s">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="20"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="24"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="20"/>
+    </row>
+    <row r="155" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="18"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="20"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="26"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="20"/>
+    </row>
+    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B157" s="40"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="40"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="40"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="40"/>
+      <c r="I157" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="18"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="23"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
-      <c r="I154" s="19" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="42"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="43"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="26"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="22" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="45"/>
+      <c r="B159" s="46"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="46"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="46"/>
+      <c r="H159" s="46"/>
+      <c r="I159" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B156" s="54"/>
-      <c r="C156" s="54"/>
-      <c r="D156" s="54"/>
-      <c r="E156" s="54"/>
-      <c r="F156" s="54"/>
-      <c r="G156" s="54"/>
-      <c r="H156" s="54"/>
-      <c r="I156" s="55"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="56"/>
-      <c r="B157" s="57"/>
-      <c r="C157" s="57"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="57"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="57"/>
-      <c r="H157" s="57"/>
-      <c r="I157" s="58"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="59"/>
-      <c r="B158" s="60"/>
-      <c r="C158" s="60"/>
-      <c r="D158" s="60"/>
-      <c r="E158" s="60"/>
-      <c r="F158" s="60"/>
-      <c r="G158" s="60"/>
-      <c r="H158" s="60"/>
-      <c r="I158" s="61"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="59"/>
-      <c r="B159" s="60"/>
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="60"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="60"/>
-      <c r="H159" s="60"/>
-      <c r="I159" s="61"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="59"/>
-      <c r="B160" s="60"/>
-      <c r="C160" s="60"/>
-      <c r="D160" s="60"/>
-      <c r="E160" s="60"/>
-      <c r="F160" s="60"/>
-      <c r="G160" s="60"/>
-      <c r="H160" s="60"/>
-      <c r="I160" s="61"/>
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="45"/>
+      <c r="B160" s="46"/>
+      <c r="C160" s="46"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="46"/>
+      <c r="I160" s="41"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="62"/>
-      <c r="B161" s="63"/>
-      <c r="C161" s="63"/>
-      <c r="D161" s="63"/>
-      <c r="E161" s="63"/>
-      <c r="F161" s="63"/>
-      <c r="G161" s="63"/>
-      <c r="H161" s="63"/>
-      <c r="I161" s="64"/>
-    </row>
-    <row r="163" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="A161" s="45"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="46"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="46"/>
+      <c r="H161" s="46"/>
+      <c r="I161" s="44"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="48"/>
+      <c r="B162" s="49"/>
+      <c r="C162" s="49"/>
+      <c r="D162" s="49"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="49"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="49"/>
+      <c r="I162" s="47"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I163" s="47"/>
+    </row>
+    <row r="164" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A164" s="28" t="s">
+      <c r="I164" s="47"/>
+    </row>
+    <row r="165" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A165" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B164" s="29"/>
-    </row>
-    <row r="166" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="B165" s="29"/>
+      <c r="I165" s="50"/>
+    </row>
+    <row r="167" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B167" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D166" s="12" t="s">
+      <c r="D167" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E166" s="12" t="s">
+      <c r="E167" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F166" s="12" t="s">
+      <c r="F167" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G166" s="12" t="s">
+      <c r="G167" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H166" s="12" t="s">
+      <c r="H167" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I166" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="20"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
@@ -5430,7 +6102,6 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
-      <c r="I168" s="20"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
@@ -5441,7 +6112,6 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
-      <c r="I169" s="20"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
@@ -5452,7 +6122,9 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
-      <c r="I170" s="20"/>
+      <c r="I170" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
@@ -5895,162 +6567,164 @@
       <c r="I210" s="20"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="24"/>
-      <c r="B211" s="25"/>
-      <c r="C211" s="25"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="25"/>
-      <c r="F211" s="25"/>
-      <c r="G211" s="25"/>
-      <c r="H211" s="25"/>
-      <c r="I211" s="21" t="s">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="20"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="24"/>
+      <c r="B212" s="25"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="25"/>
+      <c r="E212" s="25"/>
+      <c r="F212" s="25"/>
+      <c r="G212" s="25"/>
+      <c r="H212" s="25"/>
+      <c r="I212" s="20"/>
+    </row>
+    <row r="213" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="18"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="23"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="23"/>
+      <c r="H213" s="23"/>
+      <c r="I213" s="20"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="26"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="20"/>
+    </row>
+    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B215" s="40"/>
+      <c r="C215" s="40"/>
+      <c r="D215" s="40"/>
+      <c r="E215" s="40"/>
+      <c r="F215" s="40"/>
+      <c r="G215" s="40"/>
+      <c r="H215" s="40"/>
+      <c r="I215" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="18"/>
-      <c r="B212" s="23"/>
-      <c r="C212" s="23"/>
-      <c r="D212" s="23"/>
-      <c r="E212" s="23"/>
-      <c r="F212" s="23"/>
-      <c r="G212" s="23"/>
-      <c r="H212" s="23"/>
-      <c r="I212" s="19" t="s">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="42"/>
+      <c r="B216" s="43"/>
+      <c r="C216" s="43"/>
+      <c r="D216" s="43"/>
+      <c r="E216" s="43"/>
+      <c r="F216" s="43"/>
+      <c r="G216" s="43"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="26"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="27"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
-      <c r="F213" s="27"/>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27"/>
-      <c r="I213" s="22" t="s">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="45"/>
+      <c r="B217" s="46"/>
+      <c r="C217" s="46"/>
+      <c r="D217" s="46"/>
+      <c r="E217" s="46"/>
+      <c r="F217" s="46"/>
+      <c r="G217" s="46"/>
+      <c r="H217" s="46"/>
+      <c r="I217" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B214" s="54"/>
-      <c r="C214" s="54"/>
-      <c r="D214" s="54"/>
-      <c r="E214" s="54"/>
-      <c r="F214" s="54"/>
-      <c r="G214" s="54"/>
-      <c r="H214" s="54"/>
-      <c r="I214" s="55"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="56"/>
-      <c r="B215" s="57"/>
-      <c r="C215" s="57"/>
-      <c r="D215" s="57"/>
-      <c r="E215" s="57"/>
-      <c r="F215" s="57"/>
-      <c r="G215" s="57"/>
-      <c r="H215" s="57"/>
-      <c r="I215" s="58"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="59"/>
-      <c r="B216" s="60"/>
-      <c r="C216" s="60"/>
-      <c r="D216" s="60"/>
-      <c r="E216" s="60"/>
-      <c r="F216" s="60"/>
-      <c r="G216" s="60"/>
-      <c r="H216" s="60"/>
-      <c r="I216" s="61"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="59"/>
-      <c r="B217" s="60"/>
-      <c r="C217" s="60"/>
-      <c r="D217" s="60"/>
-      <c r="E217" s="60"/>
-      <c r="F217" s="60"/>
-      <c r="G217" s="60"/>
-      <c r="H217" s="60"/>
-      <c r="I217" s="61"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="59"/>
-      <c r="B218" s="60"/>
-      <c r="C218" s="60"/>
-      <c r="D218" s="60"/>
-      <c r="E218" s="60"/>
-      <c r="F218" s="60"/>
-      <c r="G218" s="60"/>
-      <c r="H218" s="60"/>
-      <c r="I218" s="61"/>
+    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="45"/>
+      <c r="B218" s="46"/>
+      <c r="C218" s="46"/>
+      <c r="D218" s="46"/>
+      <c r="E218" s="46"/>
+      <c r="F218" s="46"/>
+      <c r="G218" s="46"/>
+      <c r="H218" s="46"/>
+      <c r="I218" s="41"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="62"/>
-      <c r="B219" s="63"/>
-      <c r="C219" s="63"/>
-      <c r="D219" s="63"/>
-      <c r="E219" s="63"/>
-      <c r="F219" s="63"/>
-      <c r="G219" s="63"/>
-      <c r="H219" s="63"/>
-      <c r="I219" s="64"/>
-    </row>
-    <row r="221" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="A219" s="45"/>
+      <c r="B219" s="46"/>
+      <c r="C219" s="46"/>
+      <c r="D219" s="46"/>
+      <c r="E219" s="46"/>
+      <c r="F219" s="46"/>
+      <c r="G219" s="46"/>
+      <c r="H219" s="46"/>
+      <c r="I219" s="44"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="48"/>
+      <c r="B220" s="49"/>
+      <c r="C220" s="49"/>
+      <c r="D220" s="49"/>
+      <c r="E220" s="49"/>
+      <c r="F220" s="49"/>
+      <c r="G220" s="49"/>
+      <c r="H220" s="49"/>
+      <c r="I220" s="47"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I221" s="47"/>
+    </row>
+    <row r="222" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A222" s="28" t="s">
+      <c r="I222" s="47"/>
+    </row>
+    <row r="223" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A223" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B222" s="29"/>
-    </row>
-    <row r="224" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
+      <c r="B223" s="29"/>
+      <c r="I223" s="50"/>
+    </row>
+    <row r="225" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B225" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C225" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D224" s="12" t="s">
+      <c r="D225" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E224" s="12" t="s">
+      <c r="E225" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F224" s="12" t="s">
+      <c r="F225" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G224" s="12" t="s">
+      <c r="G225" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H224" s="12" t="s">
+      <c r="H225" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I224" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="20"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
@@ -6061,7 +6735,6 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
-      <c r="I226" s="20"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
@@ -6072,7 +6745,6 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
-      <c r="I227" s="20"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
@@ -6083,7 +6755,9 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
-      <c r="I228" s="20"/>
+      <c r="I228" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
@@ -6526,126 +7200,140 @@
       <c r="I268" s="20"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" s="24"/>
-      <c r="B269" s="25"/>
-      <c r="C269" s="25"/>
-      <c r="D269" s="25"/>
-      <c r="E269" s="25"/>
-      <c r="F269" s="25"/>
-      <c r="G269" s="25"/>
-      <c r="H269" s="25"/>
-      <c r="I269" s="21" t="s">
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="20"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="24"/>
+      <c r="B270" s="25"/>
+      <c r="C270" s="25"/>
+      <c r="D270" s="25"/>
+      <c r="E270" s="25"/>
+      <c r="F270" s="25"/>
+      <c r="G270" s="25"/>
+      <c r="H270" s="25"/>
+      <c r="I270" s="20"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="18"/>
+      <c r="B271" s="23"/>
+      <c r="C271" s="23"/>
+      <c r="D271" s="23"/>
+      <c r="E271" s="23"/>
+      <c r="F271" s="23"/>
+      <c r="G271" s="23"/>
+      <c r="H271" s="23"/>
+      <c r="I271" s="20"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="26"/>
+      <c r="B272" s="27"/>
+      <c r="C272" s="27"/>
+      <c r="D272" s="27"/>
+      <c r="E272" s="27"/>
+      <c r="F272" s="27"/>
+      <c r="G272" s="27"/>
+      <c r="H272" s="27"/>
+      <c r="I272" s="20"/>
+    </row>
+    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B273" s="40"/>
+      <c r="C273" s="40"/>
+      <c r="D273" s="40"/>
+      <c r="E273" s="40"/>
+      <c r="F273" s="40"/>
+      <c r="G273" s="40"/>
+      <c r="H273" s="40"/>
+      <c r="I273" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="18"/>
-      <c r="B270" s="23"/>
-      <c r="C270" s="23"/>
-      <c r="D270" s="23"/>
-      <c r="E270" s="23"/>
-      <c r="F270" s="23"/>
-      <c r="G270" s="23"/>
-      <c r="H270" s="23"/>
-      <c r="I270" s="19" t="s">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="42"/>
+      <c r="B274" s="43"/>
+      <c r="C274" s="43"/>
+      <c r="D274" s="43"/>
+      <c r="E274" s="43"/>
+      <c r="F274" s="43"/>
+      <c r="G274" s="43"/>
+      <c r="H274" s="43"/>
+      <c r="I274" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="26"/>
-      <c r="B271" s="27"/>
-      <c r="C271" s="27"/>
-      <c r="D271" s="27"/>
-      <c r="E271" s="27"/>
-      <c r="F271" s="27"/>
-      <c r="G271" s="27"/>
-      <c r="H271" s="27"/>
-      <c r="I271" s="22" t="s">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="45"/>
+      <c r="B275" s="46"/>
+      <c r="C275" s="46"/>
+      <c r="D275" s="46"/>
+      <c r="E275" s="46"/>
+      <c r="F275" s="46"/>
+      <c r="G275" s="46"/>
+      <c r="H275" s="46"/>
+      <c r="I275" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B272" s="54"/>
-      <c r="C272" s="54"/>
-      <c r="D272" s="54"/>
-      <c r="E272" s="54"/>
-      <c r="F272" s="54"/>
-      <c r="G272" s="54"/>
-      <c r="H272" s="54"/>
-      <c r="I272" s="55"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" s="56"/>
-      <c r="B273" s="57"/>
-      <c r="C273" s="57"/>
-      <c r="D273" s="57"/>
-      <c r="E273" s="57"/>
-      <c r="F273" s="57"/>
-      <c r="G273" s="57"/>
-      <c r="H273" s="57"/>
-      <c r="I273" s="58"/>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" s="59"/>
-      <c r="B274" s="60"/>
-      <c r="C274" s="60"/>
-      <c r="D274" s="60"/>
-      <c r="E274" s="60"/>
-      <c r="F274" s="60"/>
-      <c r="G274" s="60"/>
-      <c r="H274" s="60"/>
-      <c r="I274" s="61"/>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" s="59"/>
-      <c r="B275" s="60"/>
-      <c r="C275" s="60"/>
-      <c r="D275" s="60"/>
-      <c r="E275" s="60"/>
-      <c r="F275" s="60"/>
-      <c r="G275" s="60"/>
-      <c r="H275" s="60"/>
-      <c r="I275" s="61"/>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" s="59"/>
-      <c r="B276" s="60"/>
-      <c r="C276" s="60"/>
-      <c r="D276" s="60"/>
-      <c r="E276" s="60"/>
-      <c r="F276" s="60"/>
-      <c r="G276" s="60"/>
-      <c r="H276" s="60"/>
-      <c r="I276" s="61"/>
+    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="45"/>
+      <c r="B276" s="46"/>
+      <c r="C276" s="46"/>
+      <c r="D276" s="46"/>
+      <c r="E276" s="46"/>
+      <c r="F276" s="46"/>
+      <c r="G276" s="46"/>
+      <c r="H276" s="46"/>
+      <c r="I276" s="41"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="62"/>
-      <c r="B277" s="63"/>
-      <c r="C277" s="63"/>
-      <c r="D277" s="63"/>
-      <c r="E277" s="63"/>
-      <c r="F277" s="63"/>
-      <c r="G277" s="63"/>
-      <c r="H277" s="63"/>
-      <c r="I277" s="64"/>
+      <c r="A277" s="45"/>
+      <c r="B277" s="46"/>
+      <c r="C277" s="46"/>
+      <c r="D277" s="46"/>
+      <c r="E277" s="46"/>
+      <c r="F277" s="46"/>
+      <c r="G277" s="46"/>
+      <c r="H277" s="46"/>
+      <c r="I277" s="44"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="48"/>
+      <c r="B278" s="49"/>
+      <c r="C278" s="49"/>
+      <c r="D278" s="49"/>
+      <c r="E278" s="49"/>
+      <c r="F278" s="49"/>
+      <c r="G278" s="49"/>
+      <c r="H278" s="49"/>
+      <c r="I278" s="47"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I279" s="47"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I280" s="47"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I281" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="3">
     <mergeCell ref="A2:I6"/>
     <mergeCell ref="A98:I98"/>
     <mergeCell ref="A99:I103"/>
-    <mergeCell ref="A273:I277"/>
-    <mergeCell ref="A156:I156"/>
-    <mergeCell ref="A157:I161"/>
-    <mergeCell ref="A214:I214"/>
-    <mergeCell ref="A215:I219"/>
-    <mergeCell ref="A272:I272"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I225:I268 I109:I152 I167:I210 I12:I94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I229:I272 I12:I94 I171:I214 I109:I156">
       <formula1>$I$95:$I$97</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
+++ b/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Lista de Itens" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -1854,6 +1854,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1932,9 +1935,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1950,7 +1950,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2382,20 +2382,20 @@
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="53"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2423,58 +2423,58 @@
   <sheetData>
     <row r="1" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -2486,10 +2486,10 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="8">
         <v>41078</v>
       </c>
@@ -2767,50 +2767,50 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3281,10 +3281,10 @@
   <dimension ref="A1:I281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F137" sqref="F137"/>
+      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,61 +3296,61 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4965,74 +4965,74 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="65" t="s">
+      <c r="A98" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="68"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="68" t="s">
+      <c r="A99" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="70"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="71"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="73"/>
+      <c r="A100" s="72"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="73"/>
+      <c r="I100" s="74"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="71"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="73"/>
+      <c r="A101" s="72"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="73"/>
+      <c r="I101" s="74"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="71"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="73"/>
+      <c r="A102" s="72"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="74"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="74"/>
-      <c r="B103" s="75"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="75"/>
-      <c r="H103" s="75"/>
-      <c r="I103" s="76"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="77"/>
     </row>
     <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
@@ -5080,7 +5080,7 @@
       <c r="A109" t="s">
         <v>179</v>
       </c>
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="51" t="s">
         <v>180</v>
       </c>
       <c r="C109">
@@ -5112,7 +5112,7 @@
       <c r="G110" s="35"/>
       <c r="H110" s="35"/>
       <c r="I110" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -5133,7 +5133,7 @@
       <c r="G111" s="35"/>
       <c r="H111" s="35"/>
       <c r="I111" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -5154,7 +5154,7 @@
       <c r="G112" s="35"/>
       <c r="H112" s="35"/>
       <c r="I112" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -5175,7 +5175,7 @@
       <c r="G113" s="35"/>
       <c r="H113" s="35"/>
       <c r="I113" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -5196,7 +5196,7 @@
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
       <c r="I114" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -5217,7 +5217,7 @@
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
       <c r="I115" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5238,7 +5238,7 @@
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
       <c r="I116" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5259,7 +5259,7 @@
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
       <c r="I117" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5280,7 +5280,7 @@
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
       <c r="I118" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5301,7 +5301,7 @@
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
       <c r="I119" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">

--- a/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
+++ b/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Lista de Itens" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="249">
   <si>
     <t>Plano de Sprint</t>
   </si>
@@ -1488,6 +1488,9 @@
   </si>
   <si>
     <t>Algumas áreas ficaram sem testes unitários, embora estivessem planeados. A iteração 1 foi concluída com sucesso, tendo ficado todos os requisitos funcionais.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento codigo importação</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1953,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2748,10 +2751,10 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3281,10 +3284,10 @@
   <dimension ref="A1:I281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
+      <selection pane="bottomRight" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5448,7 +5451,7 @@
       </c>
       <c r="H126" s="35"/>
       <c r="I126" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5469,7 +5472,7 @@
       </c>
       <c r="H127" s="35"/>
       <c r="I127" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5490,7 +5493,7 @@
       </c>
       <c r="H128" s="35"/>
       <c r="I128" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -5511,7 +5514,7 @@
       </c>
       <c r="H129" s="35"/>
       <c r="I129" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5530,7 +5533,7 @@
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5551,7 +5554,7 @@
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5572,7 +5575,7 @@
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5593,7 +5596,7 @@
       </c>
       <c r="H133" s="35"/>
       <c r="I133" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5614,7 +5617,7 @@
       </c>
       <c r="H134" s="35"/>
       <c r="I134" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5625,7 +5628,7 @@
         <v>85</v>
       </c>
       <c r="C135" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="35"/>
@@ -5635,7 +5638,7 @@
       </c>
       <c r="H135" s="35"/>
       <c r="I135" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -5656,7 +5659,7 @@
       </c>
       <c r="H136" s="35"/>
       <c r="I136" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5675,7 +5678,7 @@
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5683,7 +5686,7 @@
         <v>222</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="C138" s="3">
         <v>8</v>
@@ -5696,7 +5699,7 @@
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">

--- a/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
+++ b/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Lista de Itens" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="249">
   <si>
     <t>Plano de Sprint</t>
   </si>
@@ -1488,6 +1488,9 @@
   </si>
   <si>
     <t>Algumas áreas ficaram sem testes unitários, embora estivessem planeados. A iteração 1 foi concluída com sucesso, tendo ficado todos os requisitos funcionais.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento codigo importação</t>
   </si>
 </sst>
 </file>
@@ -1854,6 +1857,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1931,9 +1937,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2382,20 +2385,20 @@
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="53"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2423,58 +2426,58 @@
   <sheetData>
     <row r="1" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -2486,10 +2489,10 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="8">
         <v>41078</v>
       </c>
@@ -2748,10 +2751,10 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,50 +2770,50 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3281,10 +3284,10 @@
   <dimension ref="A1:I281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F137" sqref="F137"/>
+      <selection pane="bottomRight" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,61 +3299,61 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4965,74 +4968,74 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="65" t="s">
+      <c r="A98" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="68"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="68" t="s">
+      <c r="A99" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="70"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="71"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="73"/>
+      <c r="A100" s="72"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="73"/>
+      <c r="I100" s="74"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="71"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="73"/>
+      <c r="A101" s="72"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="73"/>
+      <c r="I101" s="74"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="71"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="73"/>
+      <c r="A102" s="72"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="74"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="74"/>
-      <c r="B103" s="75"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="75"/>
-      <c r="H103" s="75"/>
-      <c r="I103" s="76"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="77"/>
     </row>
     <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
@@ -5080,7 +5083,7 @@
       <c r="A109" t="s">
         <v>179</v>
       </c>
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="51" t="s">
         <v>180</v>
       </c>
       <c r="C109">
@@ -5112,7 +5115,7 @@
       <c r="G110" s="35"/>
       <c r="H110" s="35"/>
       <c r="I110" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -5133,7 +5136,7 @@
       <c r="G111" s="35"/>
       <c r="H111" s="35"/>
       <c r="I111" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -5154,7 +5157,7 @@
       <c r="G112" s="35"/>
       <c r="H112" s="35"/>
       <c r="I112" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -5175,7 +5178,7 @@
       <c r="G113" s="35"/>
       <c r="H113" s="35"/>
       <c r="I113" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -5196,7 +5199,7 @@
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
       <c r="I114" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -5217,7 +5220,7 @@
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
       <c r="I115" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5238,7 +5241,7 @@
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
       <c r="I116" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5259,7 +5262,7 @@
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
       <c r="I117" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5280,7 +5283,7 @@
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
       <c r="I118" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5301,7 +5304,7 @@
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
       <c r="I119" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -5448,7 +5451,7 @@
       </c>
       <c r="H126" s="35"/>
       <c r="I126" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5469,7 +5472,7 @@
       </c>
       <c r="H127" s="35"/>
       <c r="I127" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5490,7 +5493,7 @@
       </c>
       <c r="H128" s="35"/>
       <c r="I128" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -5511,7 +5514,7 @@
       </c>
       <c r="H129" s="35"/>
       <c r="I129" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5530,7 +5533,7 @@
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5551,7 +5554,7 @@
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5572,7 +5575,7 @@
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5593,7 +5596,7 @@
       </c>
       <c r="H133" s="35"/>
       <c r="I133" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5614,7 +5617,7 @@
       </c>
       <c r="H134" s="35"/>
       <c r="I134" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5625,7 +5628,7 @@
         <v>85</v>
       </c>
       <c r="C135" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="35"/>
@@ -5635,7 +5638,7 @@
       </c>
       <c r="H135" s="35"/>
       <c r="I135" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -5656,7 +5659,7 @@
       </c>
       <c r="H136" s="35"/>
       <c r="I136" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5675,7 +5678,7 @@
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5683,7 +5686,7 @@
         <v>222</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="C138" s="3">
         <v>8</v>
@@ -5696,7 +5699,7 @@
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">

--- a/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
+++ b/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="3" r:id="rId1"/>
@@ -331,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A99" authorId="0">
+    <comment ref="A105" authorId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A102" authorId="0">
+    <comment ref="A108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C102" authorId="0">
+    <comment ref="C108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D102" authorId="0">
+    <comment ref="D108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -428,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I102" authorId="0">
+    <comment ref="I108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A157" authorId="0">
+    <comment ref="A164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -477,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A160" authorId="0">
+    <comment ref="A167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -501,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C160" authorId="0">
+    <comment ref="C167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D160" authorId="0">
+    <comment ref="D167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -549,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I160" authorId="0">
+    <comment ref="I170" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A215" authorId="0">
+    <comment ref="A222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A218" authorId="0">
+    <comment ref="A225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -622,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C218" authorId="0">
+    <comment ref="C225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D218" authorId="0">
+    <comment ref="D225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I218" authorId="0">
+    <comment ref="I228" authorId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="249">
   <si>
     <t>Plano de Sprint</t>
   </si>
@@ -910,9 +910,6 @@
     <t>Conseguir o mesmo resultado de uma formula em Inglês numa em Português</t>
   </si>
   <si>
-    <t>Identificar novas formulas a identificar</t>
-  </si>
-  <si>
     <t>Importar e exportar informação para ficheiros .xml</t>
   </si>
   <si>
@@ -952,9 +949,6 @@
     <t>Acrescentar formulas básicas em Português</t>
   </si>
   <si>
-    <t>Acrescentar formulas mais especificas em Português</t>
-  </si>
-  <si>
     <t>A informação ser obtida correctamente em paralelo</t>
   </si>
   <si>
@@ -967,251 +961,536 @@
     <t>Tem que se encontrar a exportar e a importar todos os dados, com consistência de dados</t>
   </si>
   <si>
-    <t xml:space="preserve">Conseguir o mesmo resultado de uma formula em Inglês numa em Português
+    <t>Permitir imprimir uma folha de calculo</t>
+  </si>
+  <si>
+    <t>Permitir a partilha de um determinado valor de celulas de uma folha de calculo</t>
+  </si>
+  <si>
+    <t>Consultar a informação em paralelo a informação armazenada</t>
+  </si>
+  <si>
+    <t>Permitir estruturar informação noutro tipo de ficheiros</t>
+  </si>
+  <si>
+    <t>Cópia da folha em papel</t>
+  </si>
+  <si>
+    <t>Consultar os dados correctos</t>
+  </si>
+  <si>
+    <t>Permitir identificar as formulas existentes</t>
+  </si>
+  <si>
+    <t>Obter o ficheiro de outro tipo em estruturado com a informação correcta</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Casos de uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagramas de sequência </t>
+  </si>
+  <si>
+    <t>Diagramas de classes ilustrando as novas classes e como elas “integram” com as classes existentes</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Documentação sobre testes unitários e casos de teste</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>JDBC Driver e sua implementação</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Adaptação a MySQL</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>Adaptação a SQLServer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptação a Postgres </t>
+  </si>
+  <si>
+    <t>Indicar a área da folha que pretende exportar</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>Seleccionar a base de dados destino</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>"Set up" do projecto</t>
+  </si>
+  <si>
+    <t>Adição de novas fórmulas (Contagem, se, Fazer)</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>Adicionadas novas formulas (E, Nao, Ou).</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>Inicío do desenvolvimento dos testes untitários</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>Desenvolvimento dos scripts para a nova gramática</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>Testes unitários</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>"Limpeza" do código existente</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>Relatório técnico</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>Leitura de ficheiros xml</t>
+  </si>
+  <si>
+    <t>Escrita do conteudo das celulas para XML</t>
+  </si>
+  <si>
+    <t>Escrita das formataçoes para XML</t>
+  </si>
+  <si>
+    <t>Leitura do conteudo de XML</t>
+  </si>
+  <si>
+    <t>Fazer set ao conteudo da celula na folha de calculo</t>
+  </si>
+  <si>
+    <t>Fazer set às formatações da celula, lidas do ficheiro XML</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>8.6.1</t>
+  </si>
+  <si>
+    <t>8.6.2</t>
+  </si>
+  <si>
+    <t>8.6.3</t>
+  </si>
+  <si>
+    <t>7.6.1</t>
+  </si>
+  <si>
+    <t>7.6.2</t>
+  </si>
+  <si>
+    <t>Escrita para ficheiros XML</t>
+  </si>
+  <si>
+    <t>Criação de um SubMenu para as Macros</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Criar Janela da produção de Macros</t>
+  </si>
+  <si>
+    <t>Permitir a criação de uma Macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir Editar uma Macro anteriormente criada </t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>Criação do Relatório técnico</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>Estudo do enunciado e da aplicação fornecida</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>Enviar informação por sockets</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>Sincronização de informação</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>Receber informação através de sockets</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>Reconstrução do "workbook" e das "spreadsheets"</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>Observer para a alteração de informação das celulas</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>Importação de dados para a folha a partir de uma tabela</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>Relacionar 2 células sem interferência da UI</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>Interpretar fórmulas com referências a células</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>Cálculo da fórmula</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>Interpretação de sequência de fórmulas</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>Cálculo da sequência de fórmulas</t>
+  </si>
+  <si>
+    <t>Exportar dados para base de dados (Hibernate)</t>
+  </si>
+  <si>
+    <t>Mapear classes para armazenamento</t>
+  </si>
+  <si>
+    <t>Desenvolvimento codigo exportacao</t>
+  </si>
+  <si>
+    <t>Importar dados de base de dados (Hibernate)</t>
+  </si>
+  <si>
+    <t>Acrescentar fórmulas na nova gramática que referenciam 2 células</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obter o resultado pretendido nas 2 células
 </t>
   </si>
   <si>
-    <t>Permitir imprimir uma folha de calculo</t>
-  </si>
-  <si>
-    <t>Permitir a partilha de um determinado valor de celulas de uma folha de calculo</t>
-  </si>
-  <si>
-    <t>Consultar a informação em paralelo a informação armazenada</t>
-  </si>
-  <si>
-    <t>Permitir estruturar informação noutro tipo de ficheiros</t>
-  </si>
-  <si>
-    <t>Cópia da folha em papel</t>
-  </si>
-  <si>
-    <t>Consultar os dados correctos</t>
-  </si>
-  <si>
-    <t>Permitir identificar as formulas existentes</t>
-  </si>
-  <si>
-    <t>Obter o ficheiro de outro tipo em estruturado com a informação correcta</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>Casos de uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagramas de sequência </t>
-  </si>
-  <si>
-    <t>Diagramas de classes ilustrando as novas classes e como elas “integram” com as classes existentes</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>Documentação sobre testes unitários e casos de teste</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>JDBC Driver e sua implementação</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>Adaptação a MySQL</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>Adaptação a SQLServer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptação a Postgres </t>
-  </si>
-  <si>
-    <t>Indicar a área da folha que pretende exportar</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>Seleccionar a base de dados destino</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>"Set up" do projecto</t>
-  </si>
-  <si>
-    <t>Adição de novas fórmulas (Contagem, se, Fazer)</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>Adicionadas novas formulas (E, Nao, Ou).</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>Inicío do desenvolvimento dos testes untitários</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>Desenvolvimento dos scripts para a nova gramática</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>Testes unitários</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>"Limpeza" do código existente</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>Relatório técnico</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>4.12</t>
-  </si>
-  <si>
-    <t>Leitura de ficheiros xml</t>
-  </si>
-  <si>
-    <t>Escrita do conteudo das celulas para XML</t>
-  </si>
-  <si>
-    <t>Escrita das formataçoes para XML</t>
-  </si>
-  <si>
-    <t>Leitura do conteudo de XML</t>
-  </si>
-  <si>
-    <t>Fazer set ao conteudo da celula na folha de calculo</t>
-  </si>
-  <si>
-    <t>Fazer set às formatações da celula, lidas do ficheiro XML</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>8.6.1</t>
-  </si>
-  <si>
-    <t>8.6.2</t>
-  </si>
-  <si>
-    <t>8.6.3</t>
-  </si>
-  <si>
-    <t>7.6.1</t>
-  </si>
-  <si>
-    <t>7.6.2</t>
-  </si>
-  <si>
-    <t>Escrita para ficheiros XML</t>
+    <t>Exporta dados para base de dados usando Hibernate</t>
+  </si>
+  <si>
+    <t>Dados correctamente exportados</t>
+  </si>
+  <si>
+    <t>Importa dados de base de dados usando Hibernate</t>
+  </si>
+  <si>
+    <t>Dados correctamente importados</t>
+  </si>
+  <si>
+    <t>Actualizar dados de uma tabela</t>
+  </si>
+  <si>
+    <t>Actualizada dados da tabela</t>
+  </si>
+  <si>
+    <t>Dados bem actualizados</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>Criação de variáveis locais para as instruções da macros</t>
+  </si>
+  <si>
+    <t>Implementação do output da execução de uma Macro</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>Criação de uma nova gramática para as Macros</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>11.5.1</t>
+  </si>
+  <si>
+    <t>11.5.2</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>12.5.1</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>Declaração da chave PK da tabela</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>Actualização de campos de uma tabela</t>
+  </si>
+  <si>
+    <t>Inserção de novos dados numa tabela</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>Verificação dos dados modificados</t>
+  </si>
+  <si>
+    <t>Deve ser possível manter uma conexão, podendo-a desligar e voltar a ligar quando desejado</t>
+  </si>
+  <si>
+    <t>A possíbilidade de manter a partilha após desactivar esta</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>User story da conexão</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>Diagrama de sequência do problema</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>Desactivar uma Thread de conexão</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>Organização das conexões por nome</t>
+  </si>
+  <si>
+    <t>Organizar e gerir partilha</t>
+  </si>
+  <si>
+    <t>Identificar novas formulas a implementar</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>Algumas áreas ficaram sem testes unitários, embora estivessem planeados. A iteração 1 foi concluída com sucesso, tendo ficado todos os requisitos funcionais.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento codigo importação</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1541,6 +1820,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1619,7 +1938,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1635,7 +1953,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1923,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,20 +2385,20 @@
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="53"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2098,7 +2416,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,58 +2426,58 @@
   <sheetData>
     <row r="1" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -2171,10 +2489,10 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="8">
         <v>41078</v>
       </c>
@@ -2433,10 +2751,10 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,50 +2770,50 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2532,22 +2850,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2555,13 +2873,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -2578,13 +2896,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>77</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>80</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -2593,7 +2911,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="39" x14ac:dyDescent="0.25">
@@ -2601,10 +2919,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>54</v>
@@ -2616,7 +2934,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2624,22 +2942,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>74</v>
+        <v>199</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -2647,13 +2965,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3">
         <v>10</v>
@@ -2662,7 +2980,7 @@
         <v>56</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="39" x14ac:dyDescent="0.25">
@@ -2670,13 +2988,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="E16" s="3">
         <v>8</v>
@@ -2685,7 +3003,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="39" x14ac:dyDescent="0.25">
@@ -2693,13 +3011,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E17" s="3">
         <v>8</v>
@@ -2708,7 +3026,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" x14ac:dyDescent="0.25">
@@ -2716,22 +3034,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="3">
         <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
@@ -2739,59 +3057,115 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>67</v>
-      </c>
       <c r="D19" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3">
         <v>8</v>
       </c>
       <c r="F19" s="3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G19" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>23</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="20"/>
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3">
+        <v>15</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="20"/>
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>32</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>18</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -2907,13 +3281,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,68 +3299,68 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="64"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
@@ -3029,10 +3403,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>84</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>87</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -3040,20 +3414,20 @@
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>88</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -3061,20 +3435,20 @@
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>86</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>89</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -3082,20 +3456,20 @@
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
@@ -3103,20 +3477,20 @@
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
@@ -3124,20 +3498,20 @@
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -3145,20 +3519,20 @@
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>96</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -3166,20 +3540,20 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -3187,20 +3561,20 @@
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>101</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -3208,20 +3582,20 @@
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -3229,26 +3603,26 @@
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -3258,16 +3632,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -3279,16 +3653,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -3300,16 +3674,16 @@
     </row>
     <row r="25" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
@@ -3321,16 +3695,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -3342,16 +3716,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -3363,16 +3737,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -3384,16 +3758,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -3405,16 +3779,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
@@ -3426,16 +3800,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -3447,16 +3821,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
@@ -3468,125 +3842,125 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>163</v>
       </c>
       <c r="C34" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>89</v>
+        <v>107</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>108</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="C37" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
+      <c r="E38" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="F38" s="35"/>
-      <c r="G38" s="35" t="s">
-        <v>83</v>
-      </c>
+      <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="20" t="s">
         <v>32</v>
@@ -3594,20 +3968,20 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="C39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
+      <c r="E39" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="F39" s="35"/>
-      <c r="G39" s="35" t="s">
-        <v>83</v>
-      </c>
+      <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="20" t="s">
         <v>32</v>
@@ -3615,41 +3989,41 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C40" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="E40" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="F40" s="35"/>
-      <c r="G40" s="35" t="s">
-        <v>83</v>
-      </c>
+      <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>89</v>
+        <v>160</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C41" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
+      <c r="E41" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="F41" s="35"/>
-      <c r="G41" s="35" t="s">
-        <v>83</v>
-      </c>
+      <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="20" t="s">
         <v>32</v>
@@ -3657,38 +4031,40 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="C42" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
+      <c r="E42" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="F42" s="35"/>
-      <c r="G42" s="35" t="s">
-        <v>83</v>
-      </c>
+      <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H43" s="35"/>
       <c r="I43" s="20" t="s">
@@ -3697,19 +4073,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="C44" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H44" s="35"/>
       <c r="I44" s="20" t="s">
@@ -3718,40 +4094,40 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="C45" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H45" s="35"/>
       <c r="I45" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="C46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
       <c r="G46" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="20" t="s">
@@ -3760,61 +4136,59 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
       <c r="F47" s="35"/>
       <c r="G47" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="20" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="3">
-        <v>3</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C48" s="3"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
       <c r="G48" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H48" s="35"/>
       <c r="I48" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>89</v>
+        <v>150</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C49" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
       <c r="G49" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="20" t="s">
@@ -3822,39 +4196,41 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
-        <v>148</v>
+      <c r="A50" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="C50" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
       <c r="G50" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H50" s="35"/>
       <c r="I50" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
       <c r="G51" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H51" s="35"/>
       <c r="I51" s="20" t="s">
@@ -3862,20 +4238,20 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
-        <v>150</v>
+      <c r="A52" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="C52" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52" s="20" t="s">
@@ -3884,19 +4260,19 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="C53" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
       <c r="F53" s="35"/>
       <c r="G53" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H53" s="35"/>
       <c r="I53" s="20" t="s">
@@ -3904,20 +4280,20 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
-        <v>152</v>
+      <c r="A54" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C54" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
       <c r="G54" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H54" s="35"/>
       <c r="I54" s="20" t="s">
@@ -3925,251 +4301,401 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>120</v>
+      <c r="A55" s="37" t="s">
+        <v>145</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="35" t="s">
-        <v>83</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="35"/>
       <c r="I55" s="20" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="3">
-        <v>3</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="35" t="s">
-        <v>83</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" s="35"/>
       <c r="I56" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>89</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="35" t="s">
-        <v>83</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" s="35"/>
       <c r="I57" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="C58" s="3">
-        <v>5</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="35"/>
+      <c r="I58" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="3">
+        <v>8</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" s="35"/>
+      <c r="I59" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="20"/>
+      <c r="H60" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="20"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="H61" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="20"/>
+      <c r="H62" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="3">
+        <v>5</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="20"/>
+      <c r="H63" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="20"/>
+      <c r="H64" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="20"/>
+      <c r="H65" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="3">
+        <v>6</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="20"/>
+      <c r="H66" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="20"/>
+      <c r="H67" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="20"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="H68" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="20"/>
+      <c r="H69" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="3">
+        <v>5</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="20"/>
+      <c r="H70" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="3">
+        <v>7</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="20"/>
+      <c r="H71" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="3">
+        <v>6</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="20"/>
+      <c r="H72" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="20"/>
+      <c r="H73" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I73" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
@@ -4337,859 +4863,1238 @@
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="19" t="s">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="20"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="20"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="20"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="22" t="s">
+    <row r="97" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="26"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="52" t="s">
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="54"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="57"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="60"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="60"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="59"/>
-      <c r="I96" s="60"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
-      <c r="B97" s="62"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="63"/>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="68"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="71"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="72"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="73"/>
+      <c r="I100" s="74"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="72"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="73"/>
+      <c r="I101" s="74"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="72"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="74"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="75"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="77"/>
+    </row>
+    <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="28" t="s">
+    <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="29"/>
-    </row>
-    <row r="102" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="B106" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D102" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I102" s="4" t="s">
+      <c r="D108" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="20"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="20"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="20"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="20"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="20"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="20"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="20"/>
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>80</v>
+      </c>
+      <c r="G109" s="35"/>
+      <c r="I109" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="20"/>
+      <c r="A110" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2</v>
+      </c>
+      <c r="D110" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="20"/>
+      <c r="A111" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
+      <c r="D111" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="20"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="20"/>
+      <c r="A112" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="3">
+        <v>3</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="20"/>
+      <c r="A114" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="3">
+        <v>5</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="20"/>
+      <c r="A115" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="3">
+        <v>5</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="20"/>
+      <c r="A116" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" s="3">
+        <v>2</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="20"/>
+      <c r="A117" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" s="3">
+        <v>8</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="20"/>
+      <c r="A118" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="3">
+        <v>5</v>
+      </c>
+      <c r="D118" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="20"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="20"/>
+      <c r="A119" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="3">
+        <v>2</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" s="3">
+        <v>8</v>
+      </c>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F120" s="35"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="20"/>
+      <c r="A121" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" s="3">
+        <v>8</v>
+      </c>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="20"/>
+      <c r="A122" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="3">
+        <v>8</v>
+      </c>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="A123" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" s="3">
+        <v>2</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="20"/>
+      <c r="H123" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I123" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" s="3">
+        <v>2</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="20"/>
+      <c r="H124" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I124" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C125" s="3">
+        <v>5</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="20"/>
+      <c r="H125" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I125" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="20"/>
+      <c r="A126" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" s="3">
+        <v>2</v>
+      </c>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" s="35"/>
+      <c r="I126" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="20"/>
+      <c r="A127" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="3">
+        <v>2</v>
+      </c>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H127" s="35"/>
+      <c r="I127" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="20"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="20"/>
+      <c r="A128" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2</v>
+      </c>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H128" s="35"/>
+      <c r="I128" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2</v>
+      </c>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H129" s="35"/>
+      <c r="I129" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>195</v>
+      </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+      <c r="G130" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="H130" s="3"/>
-      <c r="I130" s="20"/>
+      <c r="I130" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C131" s="3">
+        <v>8</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
+      <c r="G131" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="H131" s="3"/>
-      <c r="I131" s="20"/>
+      <c r="I131" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" s="3">
+        <v>8</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
+      <c r="G132" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="H132" s="3"/>
-      <c r="I132" s="20"/>
+      <c r="I132" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="20"/>
+      <c r="A133" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2</v>
+      </c>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H133" s="35"/>
+      <c r="I133" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="20"/>
+      <c r="A134" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H134" s="35"/>
+      <c r="I134" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="20"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="20"/>
+      <c r="A135" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="3">
+        <v>4</v>
+      </c>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H135" s="35"/>
+      <c r="I135" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1</v>
+      </c>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H136" s="35"/>
+      <c r="I136" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>198</v>
+      </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
+      <c r="G137" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="H137" s="3"/>
-      <c r="I137" s="20"/>
+      <c r="I137" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C138" s="3">
+        <v>8</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
+      <c r="G138" s="35" t="s">
+        <v>80</v>
+      </c>
       <c r="H138" s="3"/>
-      <c r="I138" s="20"/>
+      <c r="I138" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C139" s="3">
+        <v>8</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
+      <c r="F139" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
-      <c r="I139" s="20"/>
+      <c r="I139" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C140" s="3">
+        <v>8</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
-      <c r="I140" s="20"/>
+      <c r="I140" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C141" s="3">
+        <v>8</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+      <c r="F141" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
-      <c r="I141" s="20"/>
+      <c r="I141" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C142" s="3">
+        <v>8</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
+      <c r="F142" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
-      <c r="I142" s="20"/>
+      <c r="I142" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="A143" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C143" s="3">
+        <v>2</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="20"/>
+      <c r="H143" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I143" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" s="3">
+        <v>3</v>
+      </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="20"/>
+      <c r="H144" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I144" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="A145" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C145" s="3">
+        <v>6</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="20"/>
+      <c r="H145" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I145" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C146" s="3">
+        <v>6</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="20"/>
+      <c r="H146" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I146" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="25"/>
-      <c r="H147" s="25"/>
-      <c r="I147" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="20"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="18"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23"/>
-      <c r="H148" s="23"/>
-      <c r="I148" s="19" t="s">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="20"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="20"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="20"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="20"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="20"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="20"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="24"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="20"/>
+    </row>
+    <row r="155" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="18"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="20"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="26"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="20"/>
+    </row>
+    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B157" s="40"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="40"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="40"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="40"/>
+      <c r="I157" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="42"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="43"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="22" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="45"/>
+      <c r="B159" s="46"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="46"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="46"/>
+      <c r="H159" s="46"/>
+      <c r="I159" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B150" s="53"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="53"/>
-      <c r="E150" s="53"/>
-      <c r="F150" s="53"/>
-      <c r="G150" s="53"/>
-      <c r="H150" s="53"/>
-      <c r="I150" s="54"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="55"/>
-      <c r="B151" s="56"/>
-      <c r="C151" s="56"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="56"/>
-      <c r="H151" s="56"/>
-      <c r="I151" s="57"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="58"/>
-      <c r="B152" s="59"/>
-      <c r="C152" s="59"/>
-      <c r="D152" s="59"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="59"/>
-      <c r="I152" s="60"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="58"/>
-      <c r="B153" s="59"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="59"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="59"/>
-      <c r="H153" s="59"/>
-      <c r="I153" s="60"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="58"/>
-      <c r="B154" s="59"/>
-      <c r="C154" s="59"/>
-      <c r="D154" s="59"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="59"/>
-      <c r="G154" s="59"/>
-      <c r="H154" s="59"/>
-      <c r="I154" s="60"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="61"/>
-      <c r="B155" s="62"/>
-      <c r="C155" s="62"/>
-      <c r="D155" s="62"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="62"/>
-      <c r="G155" s="62"/>
-      <c r="H155" s="62"/>
-      <c r="I155" s="63"/>
-    </row>
-    <row r="157" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="45"/>
+      <c r="B160" s="46"/>
+      <c r="C160" s="46"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="46"/>
+      <c r="I160" s="41"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="45"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="46"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="46"/>
+      <c r="H161" s="46"/>
+      <c r="I161" s="44"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="48"/>
+      <c r="B162" s="49"/>
+      <c r="C162" s="49"/>
+      <c r="D162" s="49"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="49"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="49"/>
+      <c r="I162" s="47"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I163" s="47"/>
+    </row>
+    <row r="164" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A158" s="28" t="s">
+      <c r="I164" s="47"/>
+    </row>
+    <row r="165" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A165" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="29"/>
-    </row>
-    <row r="160" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="B165" s="29"/>
+      <c r="I165" s="50"/>
+    </row>
+    <row r="167" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B167" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D160" s="12" t="s">
+      <c r="D167" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E160" s="12" t="s">
+      <c r="E167" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F160" s="12" t="s">
+      <c r="F167" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G160" s="12" t="s">
+      <c r="G167" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H160" s="12" t="s">
+      <c r="H167" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I160" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="20"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="20"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="20"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="20"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="20"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="20"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="20"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
@@ -5200,7 +6105,6 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
-      <c r="I168" s="20"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
@@ -5211,7 +6115,6 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
-      <c r="I169" s="20"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
@@ -5222,7 +6125,9 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
-      <c r="I170" s="20"/>
+      <c r="I170" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
@@ -5599,228 +6504,230 @@
       <c r="I204" s="20"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="24"/>
-      <c r="B205" s="25"/>
-      <c r="C205" s="25"/>
-      <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
-      <c r="F205" s="25"/>
-      <c r="G205" s="25"/>
-      <c r="H205" s="25"/>
-      <c r="I205" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="20"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="18"/>
-      <c r="B206" s="23"/>
-      <c r="C206" s="23"/>
-      <c r="D206" s="23"/>
-      <c r="E206" s="23"/>
-      <c r="F206" s="23"/>
-      <c r="G206" s="23"/>
-      <c r="H206" s="23"/>
-      <c r="I206" s="19" t="s">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="20"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="20"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="20"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="20"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="20"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="20"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="24"/>
+      <c r="B212" s="25"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="25"/>
+      <c r="E212" s="25"/>
+      <c r="F212" s="25"/>
+      <c r="G212" s="25"/>
+      <c r="H212" s="25"/>
+      <c r="I212" s="20"/>
+    </row>
+    <row r="213" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="18"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="23"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="23"/>
+      <c r="H213" s="23"/>
+      <c r="I213" s="20"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="26"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="20"/>
+    </row>
+    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B215" s="40"/>
+      <c r="C215" s="40"/>
+      <c r="D215" s="40"/>
+      <c r="E215" s="40"/>
+      <c r="F215" s="40"/>
+      <c r="G215" s="40"/>
+      <c r="H215" s="40"/>
+      <c r="I215" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="42"/>
+      <c r="B216" s="43"/>
+      <c r="C216" s="43"/>
+      <c r="D216" s="43"/>
+      <c r="E216" s="43"/>
+      <c r="F216" s="43"/>
+      <c r="G216" s="43"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="26"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="27"/>
-      <c r="D207" s="27"/>
-      <c r="E207" s="27"/>
-      <c r="F207" s="27"/>
-      <c r="G207" s="27"/>
-      <c r="H207" s="27"/>
-      <c r="I207" s="22" t="s">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="45"/>
+      <c r="B217" s="46"/>
+      <c r="C217" s="46"/>
+      <c r="D217" s="46"/>
+      <c r="E217" s="46"/>
+      <c r="F217" s="46"/>
+      <c r="G217" s="46"/>
+      <c r="H217" s="46"/>
+      <c r="I217" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B208" s="53"/>
-      <c r="C208" s="53"/>
-      <c r="D208" s="53"/>
-      <c r="E208" s="53"/>
-      <c r="F208" s="53"/>
-      <c r="G208" s="53"/>
-      <c r="H208" s="53"/>
-      <c r="I208" s="54"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="55"/>
-      <c r="B209" s="56"/>
-      <c r="C209" s="56"/>
-      <c r="D209" s="56"/>
-      <c r="E209" s="56"/>
-      <c r="F209" s="56"/>
-      <c r="G209" s="56"/>
-      <c r="H209" s="56"/>
-      <c r="I209" s="57"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="58"/>
-      <c r="B210" s="59"/>
-      <c r="C210" s="59"/>
-      <c r="D210" s="59"/>
-      <c r="E210" s="59"/>
-      <c r="F210" s="59"/>
-      <c r="G210" s="59"/>
-      <c r="H210" s="59"/>
-      <c r="I210" s="60"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="58"/>
-      <c r="B211" s="59"/>
-      <c r="C211" s="59"/>
-      <c r="D211" s="59"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="59"/>
-      <c r="G211" s="59"/>
-      <c r="H211" s="59"/>
-      <c r="I211" s="60"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="58"/>
-      <c r="B212" s="59"/>
-      <c r="C212" s="59"/>
-      <c r="D212" s="59"/>
-      <c r="E212" s="59"/>
-      <c r="F212" s="59"/>
-      <c r="G212" s="59"/>
-      <c r="H212" s="59"/>
-      <c r="I212" s="60"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="61"/>
-      <c r="B213" s="62"/>
-      <c r="C213" s="62"/>
-      <c r="D213" s="62"/>
-      <c r="E213" s="62"/>
-      <c r="F213" s="62"/>
-      <c r="G213" s="62"/>
-      <c r="H213" s="62"/>
-      <c r="I213" s="63"/>
-    </row>
-    <row r="215" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="45"/>
+      <c r="B218" s="46"/>
+      <c r="C218" s="46"/>
+      <c r="D218" s="46"/>
+      <c r="E218" s="46"/>
+      <c r="F218" s="46"/>
+      <c r="G218" s="46"/>
+      <c r="H218" s="46"/>
+      <c r="I218" s="41"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="45"/>
+      <c r="B219" s="46"/>
+      <c r="C219" s="46"/>
+      <c r="D219" s="46"/>
+      <c r="E219" s="46"/>
+      <c r="F219" s="46"/>
+      <c r="G219" s="46"/>
+      <c r="H219" s="46"/>
+      <c r="I219" s="44"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="48"/>
+      <c r="B220" s="49"/>
+      <c r="C220" s="49"/>
+      <c r="D220" s="49"/>
+      <c r="E220" s="49"/>
+      <c r="F220" s="49"/>
+      <c r="G220" s="49"/>
+      <c r="H220" s="49"/>
+      <c r="I220" s="47"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I221" s="47"/>
+    </row>
+    <row r="222" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A216" s="28" t="s">
+      <c r="I222" s="47"/>
+    </row>
+    <row r="223" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A223" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B216" s="29"/>
-    </row>
-    <row r="218" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+      <c r="B223" s="29"/>
+      <c r="I223" s="50"/>
+    </row>
+    <row r="225" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B225" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C225" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D218" s="12" t="s">
+      <c r="D225" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E218" s="12" t="s">
+      <c r="E225" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F218" s="12" t="s">
+      <c r="F225" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G218" s="12" t="s">
+      <c r="G225" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H218" s="12" t="s">
+      <c r="H225" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I218" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="20"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="20"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="20"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="20"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="20"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-      <c r="I224" s="20"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="20"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
@@ -5831,7 +6738,6 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
-      <c r="I226" s="20"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
@@ -5842,7 +6748,6 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
-      <c r="I227" s="20"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
@@ -5853,7 +6758,9 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
-      <c r="I228" s="20"/>
+      <c r="I228" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
@@ -6230,127 +7137,207 @@
       <c r="I262" s="20"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" s="24"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="25"/>
-      <c r="D263" s="25"/>
-      <c r="E263" s="25"/>
-      <c r="F263" s="25"/>
-      <c r="G263" s="25"/>
-      <c r="H263" s="25"/>
-      <c r="I263" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+      <c r="I263" s="20"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="18"/>
-      <c r="B264" s="23"/>
-      <c r="C264" s="23"/>
-      <c r="D264" s="23"/>
-      <c r="E264" s="23"/>
-      <c r="F264" s="23"/>
-      <c r="G264" s="23"/>
-      <c r="H264" s="23"/>
-      <c r="I264" s="19" t="s">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="20"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+      <c r="I265" s="20"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+      <c r="I266" s="20"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="20"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="20"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="20"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="24"/>
+      <c r="B270" s="25"/>
+      <c r="C270" s="25"/>
+      <c r="D270" s="25"/>
+      <c r="E270" s="25"/>
+      <c r="F270" s="25"/>
+      <c r="G270" s="25"/>
+      <c r="H270" s="25"/>
+      <c r="I270" s="20"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="18"/>
+      <c r="B271" s="23"/>
+      <c r="C271" s="23"/>
+      <c r="D271" s="23"/>
+      <c r="E271" s="23"/>
+      <c r="F271" s="23"/>
+      <c r="G271" s="23"/>
+      <c r="H271" s="23"/>
+      <c r="I271" s="20"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="26"/>
+      <c r="B272" s="27"/>
+      <c r="C272" s="27"/>
+      <c r="D272" s="27"/>
+      <c r="E272" s="27"/>
+      <c r="F272" s="27"/>
+      <c r="G272" s="27"/>
+      <c r="H272" s="27"/>
+      <c r="I272" s="20"/>
+    </row>
+    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B273" s="40"/>
+      <c r="C273" s="40"/>
+      <c r="D273" s="40"/>
+      <c r="E273" s="40"/>
+      <c r="F273" s="40"/>
+      <c r="G273" s="40"/>
+      <c r="H273" s="40"/>
+      <c r="I273" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="42"/>
+      <c r="B274" s="43"/>
+      <c r="C274" s="43"/>
+      <c r="D274" s="43"/>
+      <c r="E274" s="43"/>
+      <c r="F274" s="43"/>
+      <c r="G274" s="43"/>
+      <c r="H274" s="43"/>
+      <c r="I274" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" s="26"/>
-      <c r="B265" s="27"/>
-      <c r="C265" s="27"/>
-      <c r="D265" s="27"/>
-      <c r="E265" s="27"/>
-      <c r="F265" s="27"/>
-      <c r="G265" s="27"/>
-      <c r="H265" s="27"/>
-      <c r="I265" s="22" t="s">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="45"/>
+      <c r="B275" s="46"/>
+      <c r="C275" s="46"/>
+      <c r="D275" s="46"/>
+      <c r="E275" s="46"/>
+      <c r="F275" s="46"/>
+      <c r="G275" s="46"/>
+      <c r="H275" s="46"/>
+      <c r="I275" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B266" s="53"/>
-      <c r="C266" s="53"/>
-      <c r="D266" s="53"/>
-      <c r="E266" s="53"/>
-      <c r="F266" s="53"/>
-      <c r="G266" s="53"/>
-      <c r="H266" s="53"/>
-      <c r="I266" s="54"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" s="55"/>
-      <c r="B267" s="56"/>
-      <c r="C267" s="56"/>
-      <c r="D267" s="56"/>
-      <c r="E267" s="56"/>
-      <c r="F267" s="56"/>
-      <c r="G267" s="56"/>
-      <c r="H267" s="56"/>
-      <c r="I267" s="57"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" s="58"/>
-      <c r="B268" s="59"/>
-      <c r="C268" s="59"/>
-      <c r="D268" s="59"/>
-      <c r="E268" s="59"/>
-      <c r="F268" s="59"/>
-      <c r="G268" s="59"/>
-      <c r="H268" s="59"/>
-      <c r="I268" s="60"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" s="58"/>
-      <c r="B269" s="59"/>
-      <c r="C269" s="59"/>
-      <c r="D269" s="59"/>
-      <c r="E269" s="59"/>
-      <c r="F269" s="59"/>
-      <c r="G269" s="59"/>
-      <c r="H269" s="59"/>
-      <c r="I269" s="60"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="58"/>
-      <c r="B270" s="59"/>
-      <c r="C270" s="59"/>
-      <c r="D270" s="59"/>
-      <c r="E270" s="59"/>
-      <c r="F270" s="59"/>
-      <c r="G270" s="59"/>
-      <c r="H270" s="59"/>
-      <c r="I270" s="60"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="61"/>
-      <c r="B271" s="62"/>
-      <c r="C271" s="62"/>
-      <c r="D271" s="62"/>
-      <c r="E271" s="62"/>
-      <c r="F271" s="62"/>
-      <c r="G271" s="62"/>
-      <c r="H271" s="62"/>
-      <c r="I271" s="63"/>
+    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="45"/>
+      <c r="B276" s="46"/>
+      <c r="C276" s="46"/>
+      <c r="D276" s="46"/>
+      <c r="E276" s="46"/>
+      <c r="F276" s="46"/>
+      <c r="G276" s="46"/>
+      <c r="H276" s="46"/>
+      <c r="I276" s="41"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="45"/>
+      <c r="B277" s="46"/>
+      <c r="C277" s="46"/>
+      <c r="D277" s="46"/>
+      <c r="E277" s="46"/>
+      <c r="F277" s="46"/>
+      <c r="G277" s="46"/>
+      <c r="H277" s="46"/>
+      <c r="I277" s="44"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="48"/>
+      <c r="B278" s="49"/>
+      <c r="C278" s="49"/>
+      <c r="D278" s="49"/>
+      <c r="E278" s="49"/>
+      <c r="F278" s="49"/>
+      <c r="G278" s="49"/>
+      <c r="H278" s="49"/>
+      <c r="I278" s="47"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I279" s="47"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I280" s="47"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I281" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="3">
     <mergeCell ref="A2:I6"/>
-    <mergeCell ref="A92:I92"/>
-    <mergeCell ref="A93:I97"/>
-    <mergeCell ref="A267:I271"/>
-    <mergeCell ref="A150:I150"/>
-    <mergeCell ref="A151:I155"/>
-    <mergeCell ref="A208:I208"/>
-    <mergeCell ref="A209:I213"/>
-    <mergeCell ref="A266:I266"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A99:I103"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I219:I262 I12:I88 I161:I204 I103:I146">
-      <formula1>$I$89:$I$91</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I229:I272 I12:I94 I171:I214 I109:I156">
+      <formula1>$I$95:$I$97</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
+++ b/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="3" r:id="rId1"/>
@@ -549,128 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I170" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Luis Melo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Este campo é uma "combo box". </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A222" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Luis Melo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Repetir o quadro quantas as vezes necessárias
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A225" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Luis Melo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-só são colocados os códigos dos itens identificados em folha lista de itens. As actividades não são codificadas, devendo estar nas linhas abaixo do item a que correspondem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C225" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Luis Melo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-a identificação da carga horaria deve ser feita à actividade. De preferência cada actividade demora menos de 1 dia. A carga é a quantidade de horas necessárias para concluir a actividade (se 3 pessoas vão gastar 8 horas cada então a carga é de 8*3 = 24h)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D225" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Luis Melo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Substituir pelo nome do membro do grupo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I228" authorId="0">
+    <comment ref="I167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +578,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="346">
   <si>
     <t>Plano de Sprint</t>
   </si>
@@ -785,18 +664,6 @@
     <t>Versão</t>
   </si>
   <si>
-    <t>nome do membro 1</t>
-  </si>
-  <si>
-    <t>nome do membro 2</t>
-  </si>
-  <si>
-    <t>nome do membro 3</t>
-  </si>
-  <si>
-    <t>nome do membro 4</t>
-  </si>
-  <si>
     <t>Concluido</t>
   </si>
   <si>
@@ -822,9 +689,6 @@
   </si>
   <si>
     <t>Sprint</t>
-  </si>
-  <si>
-    <t>nome do membro 5</t>
   </si>
   <si>
     <r>
@@ -1492,6 +1356,312 @@
   <si>
     <t>Desenvolvimento codigo importação</t>
   </si>
+  <si>
+    <t>Construir expressões dinâmicas</t>
+  </si>
+  <si>
+    <t>O programa deverá concatenar o valor introduzido com o da célula pretendida</t>
+  </si>
+  <si>
+    <t>Verificar se os valores são os correctos (referência a célula)</t>
+  </si>
+  <si>
+    <t>Verificar se a variável tem o valor correcto e se é "limpa"</t>
+  </si>
+  <si>
+    <t>Suportar variáveis temporárias (a utilizar nas sequências de expressões) numa nova thread.</t>
+  </si>
+  <si>
+    <t>O programa deverá  interpretar o valor da variável e, paralelamente, correr a expressão)</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>15.2</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>16.2</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>Criar nova(s) fórmula(s)</t>
+  </si>
+  <si>
+    <t>Alterar operador(s) binário(s)</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>15.6</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>Diagramas de classes</t>
+  </si>
+  <si>
+    <t>Avaliar a expressão e aplicar à célula</t>
+  </si>
+  <si>
+    <t>Testes</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>16.6</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>Detectar varíavel (gramática e jvm)</t>
+  </si>
+  <si>
+    <t>Incorporar na sequência</t>
+  </si>
+  <si>
+    <t>Calcular valor final</t>
+  </si>
+  <si>
+    <t>6.13</t>
+  </si>
+  <si>
+    <t>Identificação das alterações à gramática criada</t>
+  </si>
+  <si>
+    <t>6.14</t>
+  </si>
+  <si>
+    <t>Alteração da gramática para suportar execução de macros</t>
+  </si>
+  <si>
+    <t>6.15</t>
+  </si>
+  <si>
+    <t>6.16</t>
+  </si>
+  <si>
+    <t>Criação de Diagramas</t>
+  </si>
+  <si>
+    <t>Alteração do código para suportar a nova gramática</t>
+  </si>
+  <si>
+    <t>6.17</t>
+  </si>
+  <si>
+    <t>Permitir execução de macros dentro de fórmulas</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>Atribuir resultados de execuções de macros a células ou variáveis</t>
+  </si>
+  <si>
+    <t>Suportar sincronização entre um grupo de células e uma tabela bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deverá ser possível a sincronização entre uma tabela BD e um grupo de área de células. </t>
+  </si>
+  <si>
+    <t>Verificar se está a sincronizar</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>17.2</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>Criar novo item de opção para sincronização</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>Incorporar código referente ao grupo de células</t>
+  </si>
+  <si>
+    <t>Incorporar Código referente à tabela</t>
+  </si>
+  <si>
+    <t>Incorporar Código referente à junção da tabela com grupo de células.</t>
+  </si>
+  <si>
+    <t>Exportar/Importar dados para base de dados ficheiros CLS (Hibernate)</t>
+  </si>
+  <si>
+    <t>Exporta/Importa dados para base de dados ficheiros CLS usando Hibernate</t>
+  </si>
+  <si>
+    <t>Dados correctamente exportados/Importados</t>
+  </si>
+  <si>
+    <t>Exportar para ficheiros HTML usando XLST</t>
+  </si>
+  <si>
+    <t>Exporta dados para ficheiros em formato HTML usando XSLT</t>
+  </si>
+  <si>
+    <t>Exportar/Importar dados de base de dados (Hibernate)</t>
+  </si>
+  <si>
+    <t>Desenvolvimento codigo importação/Exportaca</t>
+  </si>
+  <si>
+    <t>Desenvolver aspecto gráfico folha de cálculo em HTML</t>
+  </si>
+  <si>
+    <t>Desenvolver aspecto gráfico folha de cálculo do Workbook</t>
+  </si>
+  <si>
+    <t>Desenvolver dados escritos para ficheiro XSLT</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>18.4.1</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>19.4.1</t>
+  </si>
+  <si>
+    <t>19.4.2</t>
+  </si>
+  <si>
+    <t>19.4.3</t>
+  </si>
+  <si>
+    <t>Renovar o use case do envio de informação</t>
+  </si>
+  <si>
+    <t>Criar um use case para a procura de partilha na rede</t>
+  </si>
+  <si>
+    <t>Criar diagrama de sequência que represente o método de segurança da partilha</t>
+  </si>
+  <si>
+    <t>Criar diagrama de sequência do pedido de hosts a rede</t>
+  </si>
+  <si>
+    <t>Apresentar a existência da aplicação numa rede</t>
+  </si>
+  <si>
+    <t>Enviar o que uma instância têm a partilhar na rede</t>
+  </si>
+  <si>
+    <t>Procurar por uma instância na rede com uma ou mais partilhas disponíveis</t>
+  </si>
+  <si>
+    <t>Alterar o método de envio de informação</t>
+  </si>
+  <si>
+    <t>Implementação de introdução de password</t>
+  </si>
+  <si>
+    <t>Asseguar a confidencialidade da palavra secreta</t>
+  </si>
+  <si>
+    <t>Conectar a uma partilha na rede, através de uma lista da mesma</t>
+  </si>
+  <si>
+    <t>Assegurar a segurança de uma partilha</t>
+  </si>
+  <si>
+    <t>Necessário saber os hosts que estão disponíveis para partilha, e não é necessário decorar ip</t>
+  </si>
+  <si>
+    <t>conectar a uma partilha desejada na rede</t>
+  </si>
+  <si>
+    <t>Manter a confidencialidade dos dados partilhados e da partilha em si</t>
+  </si>
+  <si>
+    <t>Conectar a partilhas as quais apenas temos acesso ( password )</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>20.4</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
 </sst>
 </file>
 
@@ -1500,7 +1670,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1591,8 +1761,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1602,6 +1785,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,7 +1950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1860,6 +2049,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1953,7 +2155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2254,7 +2456,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2273,7 +2475,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -2333,7 +2535,7 @@
         <v>1100554</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -2341,7 +2543,7 @@
         <v>1100592</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -2349,7 +2551,7 @@
         <v>1100604</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -2357,7 +2559,7 @@
         <v>1100638</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -2365,7 +2567,7 @@
         <v>1100677</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -2374,31 +2576,31 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="53"/>
+      <c r="B23" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="58"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
     </row>
     <row r="25" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="55"/>
+      <c r="B25" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2426,58 +2628,58 @@
   <sheetData>
     <row r="1" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="66"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -2489,17 +2691,17 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="8">
         <v>41078</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>2</v>
@@ -2748,13 +2950,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:A21"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,50 +2972,50 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="69"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2850,13 +3052,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
@@ -2873,13 +3075,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -2896,13 +3098,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -2919,13 +3121,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3">
         <v>9</v>
@@ -2942,13 +3144,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E14" s="3">
         <v>9</v>
@@ -2957,7 +3159,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -2965,19 +3167,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3">
         <v>10</v>
       </c>
       <c r="F15" s="3">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>16</v>
@@ -2988,13 +3190,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3">
         <v>8</v>
@@ -3011,13 +3213,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E17" s="3">
         <v>8</v>
@@ -3034,13 +3236,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3">
         <v>8</v>
@@ -3057,13 +3259,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E19" s="3">
         <v>8</v>
@@ -3080,13 +3282,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E20" s="3">
         <v>9</v>
@@ -3103,13 +3305,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>203</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E21" s="3">
         <v>9</v>
@@ -3126,13 +3328,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E22" s="3">
         <v>8</v>
@@ -3149,13 +3351,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
@@ -3167,101 +3369,217 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="21" t="s">
+    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>15</v>
       </c>
+      <c r="B24" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3">
+        <v>20</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" s="3">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3">
+        <v>20</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>32</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>10</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="3">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3">
+        <v>30</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>25</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30" s="3">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3">
+        <v>19</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="19" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="19" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="22" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3270,24 +3588,25 @@
     <mergeCell ref="A2:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G29">
-      <formula1>$G$30:$G$33</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G31">
+      <formula1>$G$32:$G$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I281"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="11" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I138" sqref="I138"/>
+      <selection pane="bottomRight" activeCell="K184" sqref="K184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3299,72 +3618,72 @@
   <sheetData>
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
     </row>
     <row r="7" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B9" s="29">
         <v>1</v>
@@ -3380,22 +3699,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>12</v>
@@ -3403,10 +3722,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -3414,20 +3733,20 @@
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -3435,20 +3754,20 @@
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -3456,20 +3775,20 @@
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
@@ -3477,20 +3796,20 @@
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
@@ -3498,20 +3817,20 @@
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -3519,20 +3838,20 @@
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -3540,20 +3859,20 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -3561,20 +3880,20 @@
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -3582,20 +3901,20 @@
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -3603,26 +3922,26 @@
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -3632,430 +3951,430 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="3">
         <v>8</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C41" s="3">
         <v>7</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C42" s="3">
         <v>3</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C43" s="3">
         <v>2</v>
@@ -4064,19 +4383,19 @@
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H43" s="35"/>
       <c r="I43" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4085,19 +4404,19 @@
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H44" s="35"/>
       <c r="I44" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C45" s="3">
         <v>2</v>
@@ -4106,19 +4425,19 @@
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H45" s="35"/>
       <c r="I45" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4127,19 +4446,19 @@
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
       <c r="G46" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C47" s="3">
         <v>6</v>
@@ -4148,7 +4467,7 @@
       <c r="E47" s="35"/>
       <c r="F47" s="35"/>
       <c r="G47" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="20" t="s">
@@ -4157,29 +4476,29 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
       <c r="G48" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H48" s="35"/>
       <c r="I48" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C49" s="3">
         <v>8</v>
@@ -4188,19 +4507,19 @@
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
       <c r="G49" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C50" s="3">
         <v>8</v>
@@ -4209,19 +4528,19 @@
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
       <c r="G50" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H50" s="35"/>
       <c r="I50" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
@@ -4230,19 +4549,19 @@
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
       <c r="G51" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H51" s="35"/>
       <c r="I51" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4251,19 +4570,19 @@
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C53" s="3">
         <v>3</v>
@@ -4272,19 +4591,19 @@
       <c r="E53" s="35"/>
       <c r="F53" s="35"/>
       <c r="G53" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H53" s="35"/>
       <c r="I53" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4293,19 +4612,19 @@
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
       <c r="G54" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H54" s="35"/>
       <c r="I54" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
@@ -4314,7 +4633,7 @@
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
       <c r="G55" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="20" t="s">
@@ -4323,29 +4642,29 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
       <c r="F56" s="35"/>
       <c r="G56" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C57" s="3">
         <v>6</v>
@@ -4354,19 +4673,19 @@
       <c r="E57" s="35"/>
       <c r="F57" s="35"/>
       <c r="G57" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H57" s="35"/>
       <c r="I57" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C58" s="3">
         <v>8</v>
@@ -4375,19 +4694,19 @@
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
       <c r="G58" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H58" s="35"/>
       <c r="I58" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C59" s="3">
         <v>8</v>
@@ -4396,19 +4715,19 @@
       <c r="E59" s="35"/>
       <c r="F59" s="35"/>
       <c r="G59" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H59" s="35"/>
       <c r="I59" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -4418,18 +4737,18 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C61" s="3">
         <v>3</v>
@@ -4439,18 +4758,18 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -4460,18 +4779,18 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -4481,7 +4800,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I63" s="20" t="s">
         <v>16</v>
@@ -4489,10 +4808,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -4502,18 +4821,18 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C65" s="3">
         <v>4</v>
@@ -4523,18 +4842,18 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C66" s="3">
         <v>6</v>
@@ -4544,18 +4863,18 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
@@ -4565,18 +4884,18 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
@@ -4586,18 +4905,18 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
@@ -4607,18 +4926,18 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C70" s="3">
         <v>5</v>
@@ -4628,7 +4947,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>16</v>
@@ -4636,10 +4955,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C71" s="3">
         <v>7</v>
@@ -4649,18 +4968,18 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C72" s="3">
         <v>6</v>
@@ -4670,18 +4989,18 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I72" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C73" s="3">
         <v>5</v>
@@ -4691,7 +5010,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I73" s="20" t="s">
         <v>16</v>
@@ -4938,7 +5257,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4964,87 +5283,87 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B98" s="67"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="68"/>
+      <c r="A98" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="72"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="73"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="69" t="s">
-        <v>247</v>
-      </c>
-      <c r="B99" s="70"/>
-      <c r="C99" s="70"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="71"/>
+      <c r="A99" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="76"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="72"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
-      <c r="I100" s="74"/>
+      <c r="A100" s="77"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="78"/>
+      <c r="I100" s="79"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="72"/>
-      <c r="B101" s="73"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="73"/>
-      <c r="H101" s="73"/>
-      <c r="I101" s="74"/>
+      <c r="A101" s="77"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="79"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="72"/>
-      <c r="B102" s="73"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="73"/>
-      <c r="I102" s="74"/>
+      <c r="A102" s="77"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="78"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="78"/>
+      <c r="H102" s="78"/>
+      <c r="I102" s="79"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="75"/>
-      <c r="B103" s="76"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="77"/>
+      <c r="A103" s="80"/>
+      <c r="B103" s="81"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="81"/>
+      <c r="H103" s="81"/>
+      <c r="I103" s="82"/>
     </row>
     <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B106" s="29">
         <v>2</v>
@@ -5058,22 +5377,22 @@
         <v>8</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>12</v>
@@ -5081,16 +5400,16 @@
     </row>
     <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B109" s="51" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C109">
         <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G109" s="35"/>
       <c r="I109" s="20" t="s">
@@ -5099,283 +5418,283 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C110" s="3">
         <v>2</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E110" s="35"/>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
       <c r="H110" s="35"/>
       <c r="I110" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E111" s="35"/>
       <c r="F111" s="35"/>
       <c r="G111" s="35"/>
       <c r="H111" s="35"/>
       <c r="I111" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C112" s="3">
         <v>3</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E112" s="35"/>
       <c r="F112" s="35"/>
       <c r="G112" s="35"/>
       <c r="H112" s="35"/>
       <c r="I112" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E113" s="35"/>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
       <c r="H113" s="35"/>
       <c r="I113" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C114" s="3">
         <v>5</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E114" s="35"/>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
       <c r="I114" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C115" s="3">
         <v>5</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E115" s="35"/>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
       <c r="I115" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C116" s="3">
         <v>2</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E116" s="35"/>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
       <c r="I116" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C117" s="3">
         <v>8</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E117" s="35"/>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
       <c r="I117" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C118" s="3">
         <v>5</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E118" s="35"/>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
       <c r="I118" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C119" s="3">
         <v>2</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E119" s="35"/>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
       <c r="I119" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C120" s="3">
         <v>8</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
       <c r="I120" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C121" s="3">
         <v>8</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F121" s="35"/>
       <c r="G121" s="35"/>
       <c r="H121" s="35"/>
       <c r="I121" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C122" s="3">
         <v>8</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
       <c r="H122" s="35"/>
       <c r="I122" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C123" s="3">
         <v>2</v>
@@ -5385,18 +5704,18 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I123" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C124" s="3">
         <v>2</v>
@@ -5406,18 +5725,18 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I124" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C125" s="3">
         <v>5</v>
@@ -5427,18 +5746,18 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C126" s="3">
         <v>2</v>
@@ -5447,19 +5766,19 @@
       <c r="E126" s="35"/>
       <c r="F126" s="35"/>
       <c r="G126" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H126" s="35"/>
       <c r="I126" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C127" s="3">
         <v>2</v>
@@ -5468,19 +5787,19 @@
       <c r="E127" s="35"/>
       <c r="F127" s="35"/>
       <c r="G127" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H127" s="35"/>
       <c r="I127" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C128" s="3">
         <v>2</v>
@@ -5489,19 +5808,19 @@
       <c r="E128" s="35"/>
       <c r="F128" s="35"/>
       <c r="G128" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H128" s="35"/>
       <c r="I128" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C129" s="3">
         <v>2</v>
@@ -5510,38 +5829,38 @@
       <c r="E129" s="35"/>
       <c r="F129" s="35"/>
       <c r="G129" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H129" s="35"/>
       <c r="I129" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C131" s="3">
         <v>8</v>
@@ -5550,19 +5869,19 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C132" s="3">
         <v>8</v>
@@ -5571,19 +5890,19 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C133" s="3">
         <v>2</v>
@@ -5592,19 +5911,19 @@
       <c r="E133" s="35"/>
       <c r="F133" s="35"/>
       <c r="G133" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H133" s="35"/>
       <c r="I133" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -5613,19 +5932,19 @@
       <c r="E134" s="35"/>
       <c r="F134" s="35"/>
       <c r="G134" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H134" s="35"/>
       <c r="I134" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C135" s="3">
         <v>4</v>
@@ -5634,19 +5953,19 @@
       <c r="E135" s="35"/>
       <c r="F135" s="35"/>
       <c r="G135" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H135" s="35"/>
       <c r="I135" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -5655,38 +5974,38 @@
       <c r="E136" s="35"/>
       <c r="F136" s="35"/>
       <c r="G136" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H136" s="35"/>
       <c r="I136" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C138" s="3">
         <v>8</v>
@@ -5695,19 +6014,19 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C139" s="3">
         <v>8</v>
@@ -5715,20 +6034,20 @@
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C140" s="3">
         <v>8</v>
@@ -5736,20 +6055,20 @@
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C141" s="3">
         <v>8</v>
@@ -5757,20 +6076,20 @@
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C142" s="3">
         <v>8</v>
@@ -5778,20 +6097,20 @@
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C143" s="3">
         <v>2</v>
@@ -5801,18 +6120,18 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I143" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C144" s="3">
         <v>3</v>
@@ -5822,18 +6141,18 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I144" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C145" s="3">
         <v>6</v>
@@ -5843,18 +6162,18 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I145" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C146" s="3">
         <v>6</v>
@@ -5864,10 +6183,10 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I146" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5982,7 +6301,7 @@
     </row>
     <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B157" s="40"/>
       <c r="C157" s="40"/>
@@ -5991,9 +6310,7 @@
       <c r="F157" s="40"/>
       <c r="G157" s="40"/>
       <c r="H157" s="40"/>
-      <c r="I157" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="I157" s="21"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="42"/>
@@ -6004,9 +6321,7 @@
       <c r="F158" s="43"/>
       <c r="G158" s="43"/>
       <c r="H158" s="43"/>
-      <c r="I158" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="I158" s="19"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="45"/>
@@ -6017,11 +6332,9 @@
       <c r="F159" s="46"/>
       <c r="G159" s="46"/>
       <c r="H159" s="46"/>
-      <c r="I159" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I159" s="22"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="45"/>
       <c r="B160" s="46"/>
       <c r="C160" s="46"/>
@@ -6030,7 +6343,7 @@
       <c r="F160" s="46"/>
       <c r="G160" s="46"/>
       <c r="H160" s="46"/>
-      <c r="I160" s="41"/>
+      <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="45"/>
@@ -6041,9 +6354,9 @@
       <c r="F161" s="46"/>
       <c r="G161" s="46"/>
       <c r="H161" s="46"/>
-      <c r="I161" s="44"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I161" s="3"/>
+    </row>
+    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="48"/>
       <c r="B162" s="49"/>
       <c r="C162" s="49"/>
@@ -6052,23 +6365,20 @@
       <c r="F162" s="49"/>
       <c r="G162" s="49"/>
       <c r="H162" s="49"/>
-      <c r="I162" s="47"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I163" s="47"/>
+      <c r="I162" s="41"/>
     </row>
     <row r="164" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I164" s="47"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="165" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B165" s="29"/>
-      <c r="I165" s="50"/>
+        <v>39</v>
+      </c>
+      <c r="B165" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="167" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
@@ -6078,1256 +6388,1202 @@
         <v>8</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
+      <c r="A168" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="B168" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="C168" s="52">
+        <v>3</v>
+      </c>
+      <c r="D168" s="54"/>
+      <c r="E168" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F168" s="54"/>
+      <c r="G168" s="54"/>
+      <c r="H168" s="54"/>
+      <c r="I168" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
+      <c r="A169" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="35"/>
+      <c r="E169" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
+      <c r="I169" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B170" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C170" s="3">
+        <v>8</v>
+      </c>
+      <c r="D170" s="35"/>
+      <c r="E170" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
-      <c r="I170" s="4" t="s">
-        <v>12</v>
+      <c r="I170" s="20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
+      <c r="A171" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C171" s="3">
+        <v>6</v>
+      </c>
+      <c r="D171" s="35"/>
+      <c r="E171" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
-      <c r="I171" s="20"/>
+      <c r="I171" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
+      <c r="A172" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C172" s="3">
+        <v>8</v>
+      </c>
+      <c r="D172" s="35"/>
+      <c r="E172" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
-      <c r="I172" s="20"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
+      <c r="I172" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B173" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C173" s="3">
+        <v>6</v>
+      </c>
+      <c r="D173" s="35"/>
+      <c r="E173" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
-      <c r="I173" s="20"/>
+      <c r="I173" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
+      <c r="A174" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
-      <c r="I174" s="20"/>
+      <c r="I174" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
+      <c r="A175" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
-      <c r="I175" s="20"/>
+      <c r="I175" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
+      <c r="A176" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B176" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
-      <c r="I176" s="20"/>
+      <c r="I176" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
+      <c r="A177" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C177" s="3">
+        <v>5</v>
+      </c>
+      <c r="D177" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
-      <c r="I177" s="20"/>
+      <c r="I177" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
+      <c r="A178" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C178" s="3">
+        <v>4</v>
+      </c>
+      <c r="D178" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
-      <c r="I178" s="20"/>
+      <c r="I178" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
+      <c r="A179" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C179" s="3">
+        <v>5</v>
+      </c>
+      <c r="D179" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="I179" s="20"/>
+      <c r="I179" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
+      <c r="A180" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C180" s="3">
+        <v>3</v>
+      </c>
+      <c r="D180" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
-      <c r="I180" s="20"/>
+      <c r="I180" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
+      <c r="A181" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1</v>
+      </c>
+      <c r="D181" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
-      <c r="I181" s="20"/>
+      <c r="I181" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
+      <c r="A182" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="D182" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
-      <c r="I182" s="20"/>
+      <c r="I182" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
+      <c r="A183" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B183" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1</v>
+      </c>
+      <c r="D183" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
-      <c r="I183" s="20"/>
+      <c r="I183" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
+      <c r="A184" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C184" s="3">
+        <v>6</v>
+      </c>
+      <c r="D184" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
-      <c r="I184" s="20"/>
+      <c r="I184" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
+      <c r="A185" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C185" s="3">
+        <v>3</v>
+      </c>
+      <c r="D185" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
-      <c r="I185" s="20"/>
+      <c r="I185" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
+      <c r="A186" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C186" s="3">
+        <v>5</v>
+      </c>
+      <c r="D186" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
-      <c r="I186" s="20"/>
+      <c r="I186" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
+      <c r="A187" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C187" s="3">
+        <v>3</v>
+      </c>
+      <c r="D187" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
-      <c r="I187" s="20"/>
+      <c r="I187" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
+      <c r="A188" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
+      <c r="F188" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
-      <c r="I188" s="20"/>
+      <c r="I188" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
+      <c r="A189" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C189" s="3">
+        <v>5</v>
+      </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
+      <c r="F189" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
-      <c r="I189" s="20"/>
+      <c r="I189" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
+      <c r="A190" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B190" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C190" s="3">
+        <v>2</v>
+      </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
+      <c r="F190" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
-      <c r="I190" s="20"/>
+      <c r="I190" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
+      <c r="A191" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C191" s="3">
+        <v>6</v>
+      </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
+      <c r="F191" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
-      <c r="I191" s="20"/>
+      <c r="I191" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
+      <c r="A192" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C192" s="3">
+        <v>6</v>
+      </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
+      <c r="F192" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
-      <c r="I192" s="20"/>
+      <c r="I192" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
+      <c r="A193" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C193" s="3">
+        <v>6</v>
+      </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
+      <c r="F193" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
-      <c r="I193" s="20"/>
+      <c r="I193" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
+      <c r="A194" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C194" s="3">
+        <v>6</v>
+      </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
+      <c r="F194" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
-      <c r="I194" s="20"/>
+      <c r="I194" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="20"/>
+      <c r="A195" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="35"/>
+      <c r="E195" s="35"/>
+      <c r="F195" s="35"/>
+      <c r="G195" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H195" s="35"/>
+      <c r="I195" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="20"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="20"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+      <c r="A196" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C196" s="3">
+        <v>2</v>
+      </c>
+      <c r="D196" s="35"/>
+      <c r="E196" s="35"/>
+      <c r="F196" s="35"/>
+      <c r="G196" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H196" s="35"/>
+      <c r="I196" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B197" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C197" s="3">
+        <v>2</v>
+      </c>
+      <c r="D197" s="35"/>
+      <c r="E197" s="35"/>
+      <c r="F197" s="35"/>
+      <c r="G197" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H197" s="35"/>
+      <c r="I197" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B198" s="32" t="s">
+        <v>303</v>
+      </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
+      <c r="G198" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="H198" s="3"/>
-      <c r="I198" s="20"/>
+      <c r="I198" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
+      <c r="A199" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C199" s="3">
+        <v>5</v>
+      </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
+      <c r="G199" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="H199" s="3"/>
-      <c r="I199" s="20"/>
+      <c r="I199" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
+      <c r="A200" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
+      <c r="G200" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="H200" s="3"/>
-      <c r="I200" s="20"/>
+      <c r="I200" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
+      <c r="A201" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C201" s="3">
+        <v>4</v>
+      </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
+      <c r="G201" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="H201" s="3"/>
-      <c r="I201" s="20"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
+      <c r="I201" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B202" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
+      <c r="G202" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="H202" s="3"/>
-      <c r="I202" s="20"/>
+      <c r="I202" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
+      <c r="A203" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B203" s="32" t="s">
+        <v>301</v>
+      </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
+      <c r="G203" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="H203" s="3"/>
-      <c r="I203" s="20"/>
+      <c r="I203" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
+      <c r="A204" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C204" s="3">
+        <v>8</v>
+      </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
+      <c r="G204" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="H204" s="3"/>
-      <c r="I204" s="20"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
+      <c r="I204" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B205" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C205" s="3">
+        <v>8</v>
+      </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
+      <c r="G205" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="H205" s="3"/>
-      <c r="I205" s="20"/>
+      <c r="I205" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
+      <c r="A206" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C206" s="3">
+        <v>8</v>
+      </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
+      <c r="G206" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="H206" s="3"/>
-      <c r="I206" s="20"/>
+      <c r="I206" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
+      <c r="A207" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B207" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C207" s="3">
+        <v>2</v>
+      </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="20"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
+      <c r="H207" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I207" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B208" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C208" s="3">
+        <v>3</v>
+      </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="20"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
+      <c r="H208" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I208" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B209" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C209" s="3">
+        <v>4</v>
+      </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="20"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
+      <c r="H209" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I209" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B210" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C210" s="3">
+        <v>5</v>
+      </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="20"/>
+      <c r="H210" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I210" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
+      <c r="A211" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B211" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C211" s="3">
+        <v>7</v>
+      </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="20"/>
+      <c r="H211" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I211" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="24"/>
-      <c r="B212" s="25"/>
-      <c r="C212" s="25"/>
-      <c r="D212" s="25"/>
-      <c r="E212" s="25"/>
-      <c r="F212" s="25"/>
-      <c r="G212" s="25"/>
-      <c r="H212" s="25"/>
-      <c r="I212" s="20"/>
-    </row>
-    <row r="213" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="18"/>
-      <c r="B213" s="23"/>
-      <c r="C213" s="23"/>
-      <c r="D213" s="23"/>
-      <c r="E213" s="23"/>
-      <c r="F213" s="23"/>
-      <c r="G213" s="23"/>
-      <c r="H213" s="23"/>
-      <c r="I213" s="20"/>
+      <c r="A212" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B212" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C212" s="3">
+        <v>7</v>
+      </c>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I212" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B213" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C213" s="3">
+        <v>6</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I213" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="26"/>
-      <c r="B214" s="27"/>
-      <c r="C214" s="27"/>
-      <c r="D214" s="27"/>
-      <c r="E214" s="27"/>
-      <c r="F214" s="27"/>
-      <c r="G214" s="27"/>
-      <c r="H214" s="27"/>
-      <c r="I214" s="20"/>
-    </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B215" s="40"/>
-      <c r="C215" s="40"/>
-      <c r="D215" s="40"/>
-      <c r="E215" s="40"/>
-      <c r="F215" s="40"/>
-      <c r="G215" s="40"/>
-      <c r="H215" s="40"/>
-      <c r="I215" s="21" t="s">
-        <v>32</v>
+      <c r="A214" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B214" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="C214" s="3">
+        <v>5</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I214" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B215" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C215" s="3">
+        <v>2</v>
+      </c>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I215" s="20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="42"/>
-      <c r="B216" s="43"/>
-      <c r="C216" s="43"/>
-      <c r="D216" s="43"/>
-      <c r="E216" s="43"/>
-      <c r="F216" s="43"/>
-      <c r="G216" s="43"/>
-      <c r="H216" s="43"/>
-      <c r="I216" s="19" t="s">
+      <c r="A216" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B216" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="C216" s="3">
+        <v>2</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I216" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="45"/>
-      <c r="B217" s="46"/>
-      <c r="C217" s="46"/>
-      <c r="D217" s="46"/>
-      <c r="E217" s="46"/>
-      <c r="F217" s="46"/>
-      <c r="G217" s="46"/>
-      <c r="H217" s="46"/>
-      <c r="I217" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="45"/>
-      <c r="B218" s="46"/>
-      <c r="C218" s="46"/>
-      <c r="D218" s="46"/>
-      <c r="E218" s="46"/>
-      <c r="F218" s="46"/>
-      <c r="G218" s="46"/>
-      <c r="H218" s="46"/>
-      <c r="I218" s="41"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="35"/>
+      <c r="I217" s="20"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="35"/>
+      <c r="I218" s="20"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="45"/>
-      <c r="B219" s="46"/>
-      <c r="C219" s="46"/>
-      <c r="D219" s="46"/>
-      <c r="E219" s="46"/>
-      <c r="F219" s="46"/>
-      <c r="G219" s="46"/>
-      <c r="H219" s="46"/>
-      <c r="I219" s="44"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="20"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="48"/>
-      <c r="B220" s="49"/>
-      <c r="C220" s="49"/>
-      <c r="D220" s="49"/>
-      <c r="E220" s="49"/>
-      <c r="F220" s="49"/>
-      <c r="G220" s="49"/>
-      <c r="H220" s="49"/>
-      <c r="I220" s="47"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I221" s="47"/>
-    </row>
-    <row r="222" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="20"/>
+    </row>
+    <row r="221" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="24"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="25"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="25"/>
+      <c r="I221" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="18"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="23"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="23"/>
+      <c r="F222" s="23"/>
+      <c r="G222" s="23"/>
+      <c r="H222" s="23"/>
+      <c r="I222" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="26"/>
+      <c r="B223" s="27"/>
+      <c r="C223" s="27"/>
+      <c r="D223" s="27"/>
+      <c r="E223" s="27"/>
+      <c r="F223" s="27"/>
+      <c r="G223" s="27"/>
+      <c r="H223" s="27"/>
+      <c r="I223" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I222" s="47"/>
-    </row>
-    <row r="223" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A223" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B223" s="29"/>
-      <c r="I223" s="50"/>
-    </row>
-    <row r="225" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E225" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F225" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G225" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H225" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="B224" s="40"/>
+      <c r="C224" s="40"/>
+      <c r="D224" s="40"/>
+      <c r="E224" s="40"/>
+      <c r="F224" s="40"/>
+      <c r="G224" s="40"/>
+      <c r="H224" s="40"/>
+      <c r="I224" s="41"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="42"/>
+      <c r="B225" s="43"/>
+      <c r="C225" s="43"/>
+      <c r="D225" s="43"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="43"/>
+      <c r="G225" s="43"/>
+      <c r="H225" s="43"/>
+      <c r="I225" s="44"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
+      <c r="A226" s="45"/>
+      <c r="B226" s="46"/>
+      <c r="C226" s="46"/>
+      <c r="D226" s="46"/>
+      <c r="E226" s="46"/>
+      <c r="F226" s="46"/>
+      <c r="G226" s="46"/>
+      <c r="H226" s="46"/>
+      <c r="I226" s="47"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
+      <c r="A227" s="45"/>
+      <c r="B227" s="46"/>
+      <c r="C227" s="46"/>
+      <c r="D227" s="46"/>
+      <c r="E227" s="46"/>
+      <c r="F227" s="46"/>
+      <c r="G227" s="46"/>
+      <c r="H227" s="46"/>
+      <c r="I227" s="47"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A228" s="45"/>
+      <c r="B228" s="46"/>
+      <c r="C228" s="46"/>
+      <c r="D228" s="46"/>
+      <c r="E228" s="46"/>
+      <c r="F228" s="46"/>
+      <c r="G228" s="46"/>
+      <c r="H228" s="46"/>
+      <c r="I228" s="47"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="20"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="20"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="20"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="20"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-      <c r="I233" s="20"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="20"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="20"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-      <c r="I236" s="20"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-      <c r="I237" s="20"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="20"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="20"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="20"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
-      <c r="I241" s="20"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="20"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="20"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="20"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
-      <c r="I245" s="20"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-      <c r="I246" s="20"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="20"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="20"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="20"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
-      <c r="I250" s="20"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="20"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
-      <c r="I252" s="20"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-      <c r="I253" s="20"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
-      <c r="I254" s="20"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
-      <c r="I255" s="20"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
-      <c r="I256" s="20"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
-      <c r="I257" s="20"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3"/>
-      <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
-      <c r="I258" s="20"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3"/>
-      <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
-      <c r="I259" s="20"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
-      <c r="I260" s="20"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
-      <c r="I261" s="20"/>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
-      <c r="F262" s="3"/>
-      <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
-      <c r="I262" s="20"/>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" s="3"/>
-      <c r="B263" s="3"/>
-      <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
-      <c r="F263" s="3"/>
-      <c r="G263" s="3"/>
-      <c r="H263" s="3"/>
-      <c r="I263" s="20"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
-      <c r="I264" s="20"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
-      <c r="I265" s="20"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" s="3"/>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
-      <c r="G266" s="3"/>
-      <c r="H266" s="3"/>
-      <c r="I266" s="20"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
-      <c r="G267" s="3"/>
-      <c r="H267" s="3"/>
-      <c r="I267" s="20"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
-      <c r="I268" s="20"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
-      <c r="I269" s="20"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="24"/>
-      <c r="B270" s="25"/>
-      <c r="C270" s="25"/>
-      <c r="D270" s="25"/>
-      <c r="E270" s="25"/>
-      <c r="F270" s="25"/>
-      <c r="G270" s="25"/>
-      <c r="H270" s="25"/>
-      <c r="I270" s="20"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="18"/>
-      <c r="B271" s="23"/>
-      <c r="C271" s="23"/>
-      <c r="D271" s="23"/>
-      <c r="E271" s="23"/>
-      <c r="F271" s="23"/>
-      <c r="G271" s="23"/>
-      <c r="H271" s="23"/>
-      <c r="I271" s="20"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="26"/>
-      <c r="B272" s="27"/>
-      <c r="C272" s="27"/>
-      <c r="D272" s="27"/>
-      <c r="E272" s="27"/>
-      <c r="F272" s="27"/>
-      <c r="G272" s="27"/>
-      <c r="H272" s="27"/>
-      <c r="I272" s="20"/>
-    </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B273" s="40"/>
-      <c r="C273" s="40"/>
-      <c r="D273" s="40"/>
-      <c r="E273" s="40"/>
-      <c r="F273" s="40"/>
-      <c r="G273" s="40"/>
-      <c r="H273" s="40"/>
-      <c r="I273" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" s="42"/>
-      <c r="B274" s="43"/>
-      <c r="C274" s="43"/>
-      <c r="D274" s="43"/>
-      <c r="E274" s="43"/>
-      <c r="F274" s="43"/>
-      <c r="G274" s="43"/>
-      <c r="H274" s="43"/>
-      <c r="I274" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" s="45"/>
-      <c r="B275" s="46"/>
-      <c r="C275" s="46"/>
-      <c r="D275" s="46"/>
-      <c r="E275" s="46"/>
-      <c r="F275" s="46"/>
-      <c r="G275" s="46"/>
-      <c r="H275" s="46"/>
-      <c r="I275" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="45"/>
-      <c r="B276" s="46"/>
-      <c r="C276" s="46"/>
-      <c r="D276" s="46"/>
-      <c r="E276" s="46"/>
-      <c r="F276" s="46"/>
-      <c r="G276" s="46"/>
-      <c r="H276" s="46"/>
-      <c r="I276" s="41"/>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="45"/>
-      <c r="B277" s="46"/>
-      <c r="C277" s="46"/>
-      <c r="D277" s="46"/>
-      <c r="E277" s="46"/>
-      <c r="F277" s="46"/>
-      <c r="G277" s="46"/>
-      <c r="H277" s="46"/>
-      <c r="I277" s="44"/>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" s="48"/>
-      <c r="B278" s="49"/>
-      <c r="C278" s="49"/>
-      <c r="D278" s="49"/>
-      <c r="E278" s="49"/>
-      <c r="F278" s="49"/>
-      <c r="G278" s="49"/>
-      <c r="H278" s="49"/>
-      <c r="I278" s="47"/>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I279" s="47"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I280" s="47"/>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I281" s="50"/>
+      <c r="A229" s="48"/>
+      <c r="B229" s="49"/>
+      <c r="C229" s="49"/>
+      <c r="D229" s="49"/>
+      <c r="E229" s="49"/>
+      <c r="F229" s="49"/>
+      <c r="G229" s="49"/>
+      <c r="H229" s="49"/>
+      <c r="I229" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7336,7 +7592,7 @@
     <mergeCell ref="A99:I103"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I229:I272 I12:I94 I171:I214 I109:I156">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I94 I109:I156 I168:I220">
       <formula1>$I$95:$I$97</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
+++ b/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="3" r:id="rId1"/>
@@ -1537,9 +1537,6 @@
     <t>Exportar/Importar dados de base de dados (Hibernate)</t>
   </si>
   <si>
-    <t>Desenvolvimento codigo importação/Exportaca</t>
-  </si>
-  <si>
     <t>Desenvolver aspecto gráfico folha de cálculo em HTML</t>
   </si>
   <si>
@@ -1661,6 +1658,9 @@
   </si>
   <si>
     <t>21.5</t>
+  </si>
+  <si>
+    <t>Desenvolvimento codigo importação/Exportação</t>
   </si>
 </sst>
 </file>
@@ -2952,11 +2952,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,13 +3489,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C29" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>332</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>333</v>
       </c>
       <c r="E29" s="3">
         <v>6</v>
@@ -3512,13 +3512,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C30" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>334</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>335</v>
       </c>
       <c r="E30" s="3">
         <v>7</v>
@@ -3602,11 +3602,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="11" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K184" sqref="K184"/>
+      <selection pane="bottomRight" activeCell="J204" sqref="J204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>79</v>
@@ -6994,12 +6994,12 @@
       </c>
       <c r="H195" s="35"/>
       <c r="I195" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>80</v>
@@ -7015,12 +7015,12 @@
       </c>
       <c r="H196" s="35"/>
       <c r="I196" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B197" s="32" t="s">
         <v>81</v>
@@ -7036,12 +7036,12 @@
       </c>
       <c r="H197" s="35"/>
       <c r="I197" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B198" s="32" t="s">
         <v>303</v>
@@ -7055,15 +7055,15 @@
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>304</v>
+        <v>311</v>
+      </c>
+      <c r="B199" s="32" t="s">
+        <v>345</v>
       </c>
       <c r="C199" s="3">
         <v>5</v>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H199" s="3"/>
       <c r="I199" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>79</v>
@@ -7097,12 +7097,12 @@
       </c>
       <c r="H200" s="3"/>
       <c r="I200" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>80</v>
@@ -7118,12 +7118,12 @@
       </c>
       <c r="H201" s="3"/>
       <c r="I201" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B202" s="32" t="s">
         <v>81</v>
@@ -7139,12 +7139,12 @@
       </c>
       <c r="H202" s="3"/>
       <c r="I202" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B203" s="32" t="s">
         <v>301</v>
@@ -7158,15 +7158,15 @@
       </c>
       <c r="H203" s="3"/>
       <c r="I203" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C204" s="3">
         <v>8</v>
@@ -7179,15 +7179,15 @@
       </c>
       <c r="H204" s="3"/>
       <c r="I204" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B205" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C205" s="3">
         <v>8</v>
@@ -7200,15 +7200,15 @@
       </c>
       <c r="H205" s="3"/>
       <c r="I205" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C206" s="3">
         <v>8</v>
@@ -7221,15 +7221,15 @@
       </c>
       <c r="H206" s="3"/>
       <c r="I206" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B207" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C207" s="3">
         <v>2</v>
@@ -7247,10 +7247,10 @@
     </row>
     <row r="208" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B208" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C208" s="3">
         <v>3</v>
@@ -7268,10 +7268,10 @@
     </row>
     <row r="209" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B209" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C209" s="3">
         <v>4</v>
@@ -7289,10 +7289,10 @@
     </row>
     <row r="210" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B210" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C210" s="3">
         <v>5</v>
@@ -7310,10 +7310,10 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B211" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C211" s="3">
         <v>7</v>
@@ -7331,10 +7331,10 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B212" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C212" s="3">
         <v>7</v>
@@ -7352,10 +7352,10 @@
     </row>
     <row r="213" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B213" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C213" s="3">
         <v>6</v>
@@ -7373,10 +7373,10 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B214" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C214" s="3">
         <v>5</v>
@@ -7394,10 +7394,10 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B215" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C215" s="3">
         <v>2</v>
@@ -7415,10 +7415,10 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B216" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C216" s="3">
         <v>2</v>

--- a/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
+++ b/docs/Log_Gestao_Projecto_aluno1_1100554.xlsx
@@ -1537,6 +1537,9 @@
     <t>Exportar/Importar dados de base de dados (Hibernate)</t>
   </si>
   <si>
+    <t>Desenvolvimento codigo importação/Exportaca</t>
+  </si>
+  <si>
     <t>Desenvolver aspecto gráfico folha de cálculo em HTML</t>
   </si>
   <si>
@@ -1658,9 +1661,6 @@
   </si>
   <si>
     <t>21.5</t>
-  </si>
-  <si>
-    <t>Desenvolvimento codigo importação/Exportação</t>
   </si>
 </sst>
 </file>
@@ -2953,10 +2953,10 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:A28"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,7 +3067,7 @@
         <v>44</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3090,7 +3090,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -3182,7 +3182,7 @@
         <v>88</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="39" x14ac:dyDescent="0.25">
@@ -3251,7 +3251,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
         <v>35</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
@@ -3297,7 +3297,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
@@ -3320,7 +3320,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" x14ac:dyDescent="0.25">
@@ -3366,7 +3366,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
@@ -3435,7 +3435,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
@@ -3458,7 +3458,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="39" x14ac:dyDescent="0.25">
@@ -3489,13 +3489,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E29" s="3">
         <v>6</v>
@@ -3504,7 +3504,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="39" x14ac:dyDescent="0.25">
@@ -3512,13 +3512,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E30" s="3">
         <v>7</v>
@@ -3527,7 +3527,7 @@
         <v>19</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3602,11 +3602,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="11" topLeftCell="C204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J204" sqref="J204"/>
+      <selection pane="bottomRight" activeCell="I218" sqref="I218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4950,7 +4950,7 @@
         <v>75</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -5013,7 +5013,7 @@
         <v>75</v>
       </c>
       <c r="I73" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="G109" s="35"/>
       <c r="I109" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6427,7 +6427,7 @@
       <c r="G168" s="54"/>
       <c r="H168" s="54"/>
       <c r="I168" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -6448,7 +6448,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -6469,7 +6469,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -6490,7 +6490,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -6511,7 +6511,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -6532,7 +6532,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -6847,7 +6847,7 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6868,7 +6868,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6889,7 +6889,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6910,7 +6910,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6931,7 +6931,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6952,7 +6952,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6973,12 +6973,12 @@
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>79</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>80</v>
@@ -7020,7 +7020,7 @@
     </row>
     <row r="197" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B197" s="32" t="s">
         <v>81</v>
@@ -7041,7 +7041,7 @@
     </row>
     <row r="198" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B198" s="32" t="s">
         <v>303</v>
@@ -7060,10 +7060,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B199" s="32" t="s">
-        <v>345</v>
+        <v>312</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="C199" s="3">
         <v>5</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>79</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>80</v>
@@ -7123,7 +7123,7 @@
     </row>
     <row r="202" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B202" s="32" t="s">
         <v>81</v>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B203" s="32" t="s">
         <v>301</v>
@@ -7163,10 +7163,10 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C204" s="3">
         <v>8</v>
@@ -7184,10 +7184,10 @@
     </row>
     <row r="205" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B205" s="56" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C205" s="3">
         <v>8</v>
@@ -7205,10 +7205,10 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C206" s="3">
         <v>8</v>
@@ -7226,10 +7226,10 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B207" s="32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C207" s="3">
         <v>2</v>
@@ -7242,15 +7242,15 @@
         <v>75</v>
       </c>
       <c r="I207" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B208" s="32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C208" s="3">
         <v>3</v>
@@ -7263,15 +7263,15 @@
         <v>75</v>
       </c>
       <c r="I208" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B209" s="32" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C209" s="3">
         <v>4</v>
@@ -7284,15 +7284,15 @@
         <v>75</v>
       </c>
       <c r="I209" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B210" s="32" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C210" s="3">
         <v>5</v>
@@ -7305,15 +7305,15 @@
         <v>75</v>
       </c>
       <c r="I210" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B211" s="32" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C211" s="3">
         <v>7</v>
@@ -7326,15 +7326,15 @@
         <v>75</v>
       </c>
       <c r="I211" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B212" s="32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C212" s="3">
         <v>7</v>
@@ -7347,15 +7347,15 @@
         <v>75</v>
       </c>
       <c r="I212" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B213" s="32" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C213" s="3">
         <v>6</v>
@@ -7368,15 +7368,15 @@
         <v>75</v>
       </c>
       <c r="I213" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B214" s="32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C214" s="3">
         <v>5</v>
@@ -7389,15 +7389,15 @@
         <v>75</v>
       </c>
       <c r="I214" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B215" s="32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C215" s="3">
         <v>2</v>
@@ -7410,15 +7410,15 @@
         <v>75</v>
       </c>
       <c r="I215" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B216" s="32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C216" s="3">
         <v>2</v>
@@ -7431,7 +7431,7 @@
         <v>75</v>
       </c>
       <c r="I216" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -7592,7 +7592,7 @@
     <mergeCell ref="A99:I103"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I94 I109:I156 I168:I220">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I109:I156 I12:I94 I168:I220">
       <formula1>$I$95:$I$97</formula1>
     </dataValidation>
   </dataValidations>
